--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>PTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,217 +665,230 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>359600</v>
+      </c>
+      <c r="E8" s="3">
         <v>356100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>335000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>295500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>290500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>334700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>312500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>314800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>307900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>306600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>306400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>291300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>280000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>286300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E9" s="3">
         <v>87400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>85400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>82700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>79900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>77400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>78100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>81600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>83600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>83000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>82800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>82300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>81800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>82100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>276600</v>
+      </c>
+      <c r="E10" s="3">
         <v>268700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>249600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>212800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>210600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>257300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>234400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>233200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>224300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>223600</v>
       </c>
       <c r="M10" s="3">
         <v>223600</v>
       </c>
       <c r="N10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="O10" s="3">
         <v>209000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>198200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>204200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -893,55 +906,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E12" s="3">
         <v>65300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>64100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>60600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>61400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>60800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>62400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>61200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>62200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>64000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>60600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>59900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>57700</v>
-      </c>
-      <c r="P12" s="3">
-        <v>57900</v>
       </c>
       <c r="Q12" s="3">
         <v>57900</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -987,66 +1004,72 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E14" s="3">
         <v>21100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>18900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E15" s="3">
         <v>6800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5900</v>
       </c>
       <c r="G15" s="3">
         <v>5900</v>
@@ -1055,34 +1078,37 @@
         <v>5900</v>
       </c>
       <c r="I15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J15" s="3">
         <v>7800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7900</v>
       </c>
       <c r="K15" s="3">
         <v>7900</v>
       </c>
       <c r="L15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M15" s="3">
         <v>7800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,102 +1123,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>309600</v>
+      </c>
+      <c r="E17" s="3">
         <v>325700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>288500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>286200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>313300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>304600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>301000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>293200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>285500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>289300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>288800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>280000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>272500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>281800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E18" s="3">
         <v>30400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1210,243 +1243,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E21" s="3">
         <v>49500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>63500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>50800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>33400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>43200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>43600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>37600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>38200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>32400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E22" s="3">
         <v>10900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10600</v>
       </c>
       <c r="J22" s="3">
         <v>10600</v>
       </c>
       <c r="K22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L22" s="3">
         <v>10400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>10200</v>
       </c>
       <c r="N22" s="3">
         <v>10200</v>
       </c>
       <c r="O22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="P22" s="3">
         <v>11700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E23" s="3">
         <v>19000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>33800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-33400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-16400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-12500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-12000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1492,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E26" s="3">
         <v>35500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-43500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E27" s="3">
         <v>35500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-43500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1653,8 +1714,8 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1663,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>7100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,102 +1841,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E33" s="3">
         <v>35500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-43500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E35" s="3">
         <v>35500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-43500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,149 +2138,159 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>826800</v>
+      </c>
+      <c r="E41" s="3">
         <v>237000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>269600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>267900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>294300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>277000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>259900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>266600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>299800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>291700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>280000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>260700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>243300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>173400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E42" s="3">
         <v>29300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>27900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>33100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>25600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>22400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>18400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>23600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>22700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>352700</v>
+      </c>
+      <c r="E43" s="3">
         <v>344400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>372700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>321400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>352200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>385700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>129300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>130100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>127200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>131100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>152300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>128600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>142600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>132900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,243 +2336,261 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E45" s="3">
         <v>128500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>112400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>130300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>118700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>111700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>218700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>169200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>199400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>176600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>215800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>262200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>184200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1341400</v>
+      </c>
+      <c r="E46" s="3">
         <v>739200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>782600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>752700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>790600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>633800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>588200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>649200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>619500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>666600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>609500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>671700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>513200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E47" s="3">
         <v>28200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>29500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>21600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>31000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>30100</v>
       </c>
       <c r="I47" s="3">
         <v>30100</v>
       </c>
       <c r="J47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K47" s="3">
         <v>31800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>30400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>31900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>30900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E48" s="3">
         <v>270700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>105500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>107800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>106800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>107400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>80600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>64500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>59200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>61200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>63600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>63400</v>
       </c>
       <c r="O48" s="3">
         <v>63400</v>
       </c>
       <c r="P48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>65900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1854300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1872100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1408100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1428300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1421900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1436000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1382700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1397100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1421600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1428000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1440700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1445500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1441600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1453200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,55 +2686,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>386900</v>
+      </c>
+      <c r="E52" s="3">
         <v>369700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>338800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>338400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>365500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>379600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>201900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>174000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>166300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>166900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>157600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>142500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>132400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>137600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,55 +2786,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3866500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3279800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2664600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2648600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2715800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2753000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2329000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2255600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2328800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2305900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2360400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2291800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2333700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2196900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,78 +2878,82 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E57" s="3">
         <v>42500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>53500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>496400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2842,196 +2976,211 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>662000</v>
+      </c>
+      <c r="E59" s="3">
         <v>589100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>595700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>557200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>561700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>483700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>681800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>627300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>659400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>571700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>643700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>626400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>665600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>537700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1192200</v>
+      </c>
+      <c r="E60" s="3">
         <v>631500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>638200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>601200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>598400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>541000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>735300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>665100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>689300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>604300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>678900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>650900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>683900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>556700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1134300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1124300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>669100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>698900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>738700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>778500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>643300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>693100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>642800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>742600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>712400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>712200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>712000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>731800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>265900</v>
+      </c>
+      <c r="E62" s="3">
         <v>276200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>155300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>132900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>131000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>112300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>75900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>63100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>68900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>69900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>83600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>93300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>90500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>89500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,55 +3326,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2592400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2032000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1462600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1433000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1468100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1431800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1454400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1421200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1401100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1416800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1474900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1456400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1486400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1378000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,55 +3596,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-150400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-157500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-191400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-197100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-182300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-138800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-599400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-612600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-629600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-637500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-650800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-668300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-667300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-666200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,55 +3796,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1274100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1247800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1202000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1215600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1247700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1321200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>874600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>834400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>927700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>889100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>885400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>835400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>847300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>819000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E81" s="3">
         <v>35500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-43500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,55 +4023,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E83" s="3">
         <v>19600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,55 +4321,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E89" s="3">
         <v>7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>55200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>67600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>141100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>62000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>49200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>110800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>73900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>76400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-47900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,55 +4393,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,55 +4541,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-473400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-101200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,145 +4811,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E100" s="3">
         <v>431100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-46400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-74700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-96900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>95000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-45800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-65400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-93000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-50200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>589800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>69900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-104600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>PTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>351700</v>
+      </c>
+      <c r="E8" s="3">
         <v>359600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>356100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>335000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>295500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>290500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>334700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>312500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>314800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>307900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>306600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>306400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>291300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>280000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>286300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E9" s="3">
         <v>83000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>87400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>85400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>82700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>79900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>77400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>78100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>81600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>83600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>83000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>82800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>82300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>81800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>82100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>272500</v>
+      </c>
+      <c r="E10" s="3">
         <v>276600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>268700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>249600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>212800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>210600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>257300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>234400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>233200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>224300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>223600</v>
       </c>
       <c r="N10" s="3">
         <v>223600</v>
       </c>
       <c r="O10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="P10" s="3">
         <v>209000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>198200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>204200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E12" s="3">
         <v>60000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>65300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>64100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>60600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>61400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>60800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>62400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>61200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>62200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>64000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>60600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>59900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>57700</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>57900</v>
       </c>
       <c r="R12" s="3">
         <v>57900</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,58 +1024,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E14" s="3">
         <v>18500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>21100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>18900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1066,13 +1089,13 @@
         <v>7300</v>
       </c>
       <c r="E15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F15" s="3">
         <v>6800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5900</v>
       </c>
       <c r="H15" s="3">
         <v>5900</v>
@@ -1081,34 +1104,37 @@
         <v>5900</v>
       </c>
       <c r="J15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K15" s="3">
         <v>7800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7900</v>
       </c>
       <c r="L15" s="3">
         <v>7900</v>
       </c>
       <c r="M15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N15" s="3">
         <v>7800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>288300</v>
+      </c>
+      <c r="E17" s="3">
         <v>309600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>325700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>288500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>286200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>313300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>304600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>301000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>293200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>285500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>289300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>288800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>280000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>272500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>281800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E18" s="3">
         <v>50000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>30400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-22800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,258 +1277,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E21" s="3">
         <v>68000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>49500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>63500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>50800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>33400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>43200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>43600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>37600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>32400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>31900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E22" s="3">
         <v>31700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>10600</v>
       </c>
       <c r="K22" s="3">
         <v>10600</v>
       </c>
       <c r="L22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="M22" s="3">
         <v>10400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>10200</v>
       </c>
       <c r="O22" s="3">
         <v>10200</v>
       </c>
       <c r="P22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>11700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E23" s="3">
         <v>15800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-33400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E24" s="3">
         <v>8600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-16400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-12500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-12000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E26" s="3">
         <v>7200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-43500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E27" s="3">
         <v>7200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-43500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1717,8 +1778,8 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1727,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>7100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E33" s="3">
         <v>7200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-43500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E35" s="3">
         <v>7200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-43500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,158 +2225,168 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>377400</v>
+      </c>
+      <c r="E41" s="3">
         <v>826800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>237000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>269600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>267900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>294300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>277000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>259900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>266600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>299800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>291700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>280000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>260700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>243300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>173400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E42" s="3">
         <v>34300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>29300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>27900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>25400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>18400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>23600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>319200</v>
+      </c>
+      <c r="E43" s="3">
         <v>352700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>344400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>372700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>321400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>352200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>385700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>130100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>127200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>131100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>152300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>128600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>142600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>132900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,258 +2435,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>124700</v>
+      </c>
+      <c r="E45" s="3">
         <v>127700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>128500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>112400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>130300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>118700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>111700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>218700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>169200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>199400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>176600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>215800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>262200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>184200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>847200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1341400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>739200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>782600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>752700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>790600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>633800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>588200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>649200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>619500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>666600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>609500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>671700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>513200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E47" s="3">
         <v>22700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>28200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>21600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>31000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>30100</v>
       </c>
       <c r="J47" s="3">
         <v>30100</v>
       </c>
       <c r="K47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="L47" s="3">
         <v>31800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>30400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>30900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>252700</v>
+      </c>
+      <c r="E48" s="3">
         <v>261200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>270700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>105500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>107800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>106800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>107400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>80600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>64500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>61200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>63600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>63400</v>
       </c>
       <c r="P48" s="3">
         <v>63400</v>
       </c>
       <c r="Q48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="R48" s="3">
         <v>65900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1852400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1854300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1872100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1408100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1428300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1421900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1436000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1382700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1397100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1421600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1428000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1440700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1445500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1441600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1453200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>391900</v>
+      </c>
+      <c r="E52" s="3">
         <v>386900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>369700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>338800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>338400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>365500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>379600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>201900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>174000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>166300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>166900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>157600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>142500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>132400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>137600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3376200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3866500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3279800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2664600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2648600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2715800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2753000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2329000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2255600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2328800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2305900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2360400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2291800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2333700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2196900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,66 +3009,70 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E57" s="3">
         <v>33700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>44100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>53500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="3">
         <v>496400</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>24</v>
@@ -2955,8 +3089,8 @@
       <c r="J58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2979,208 +3113,223 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>636300</v>
+      </c>
+      <c r="E59" s="3">
         <v>662000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>589100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>595700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>557200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>561700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>483700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>681800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>627300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>659400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>571700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>643700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>626400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>665600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>537700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>666300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1192200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>631500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>638200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>601200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>598400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>541000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>735300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>665100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>689300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>604300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>678900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>650900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>683900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>556700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1124700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1134300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1124300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>669100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>698900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>738700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>778500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>643300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>693100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>642800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>742600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>712400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>712200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>712000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>731800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>257600</v>
+      </c>
+      <c r="E62" s="3">
         <v>265900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>276200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>155300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>132900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>131000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>112300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>75900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>68900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>69900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>83600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>93300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>90500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>89500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2048600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2592400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2032000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1462600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1433000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1468100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1431800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1454400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1421200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1401100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1416800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1474900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1456400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1486400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1378000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-115700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-150400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-157500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-191400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-197100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-182300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-138800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-599400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-612600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-629600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-637500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-650800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-668300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-667300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-666200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1327600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1274100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1247800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1202000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1215600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1247700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1321200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>874600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>834400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>927700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>889100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>885400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>835400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>847300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>819000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E81" s="3">
         <v>7200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-43500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E83" s="3">
         <v>20600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>104500</v>
+      </c>
+      <c r="E89" s="3">
         <v>87800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>55200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>67600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>141100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>62000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>49200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>110800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>73900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>76400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-47900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-473400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-101200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-535600</v>
+      </c>
+      <c r="E100" s="3">
         <v>513000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>431100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-46400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-74700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-96900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>95000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-45800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-65400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-93000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-50200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-41200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-449700</v>
+      </c>
+      <c r="E102" s="3">
         <v>589800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-32800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>69900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-104600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>PTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E8" s="3">
         <v>351700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>359600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>356100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>335000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>295500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>290500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>334700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>312500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>314800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>307900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>306600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>306400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>291300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>280000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>286300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E9" s="3">
         <v>79200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>83000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>87400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>85400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>82700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>79900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>77400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>78100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>81600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>83600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>83000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>82800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>82300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>81800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>82100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>306400</v>
+      </c>
+      <c r="E10" s="3">
         <v>272500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>276600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>268700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>249600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>212800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>210600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>257300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>234400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>233200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>224300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>223600</v>
       </c>
       <c r="O10" s="3">
         <v>223600</v>
       </c>
       <c r="P10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="Q10" s="3">
         <v>209000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>198200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>204200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E12" s="3">
         <v>61400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>60000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>65300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>64100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>60600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>61400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>60800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>62400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>61200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>62200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>64000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>60600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>59900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>57700</v>
-      </c>
-      <c r="R12" s="3">
-        <v>57900</v>
       </c>
       <c r="S12" s="3">
         <v>57900</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,61 +1044,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>18500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,13 +1115,13 @@
         <v>7300</v>
       </c>
       <c r="F15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G15" s="3">
         <v>6800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5900</v>
       </c>
       <c r="I15" s="3">
         <v>5900</v>
@@ -1107,34 +1130,37 @@
         <v>5900</v>
       </c>
       <c r="K15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L15" s="3">
         <v>7800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7900</v>
       </c>
       <c r="M15" s="3">
         <v>7900</v>
       </c>
       <c r="N15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="O15" s="3">
         <v>7800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E17" s="3">
         <v>288300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>309600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>325700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>288500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>286200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>313300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>304600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>301000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>293200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>285500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>289300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>288800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>280000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>272500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>281800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E18" s="3">
         <v>63400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>50000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-22800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>30100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1278,273 +1311,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E21" s="3">
         <v>84700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>49500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>63500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>50800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>33400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>43200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>43600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>37600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>32400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>31900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>25300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E22" s="3">
         <v>19700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>31700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>10600</v>
       </c>
       <c r="L22" s="3">
         <v>10600</v>
       </c>
       <c r="M22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N22" s="3">
         <v>10400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>10200</v>
       </c>
       <c r="P22" s="3">
         <v>10200</v>
       </c>
       <c r="Q22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="R22" s="3">
         <v>11700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E23" s="3">
         <v>44500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>9800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-16400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-12500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E26" s="3">
         <v>34700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E27" s="3">
         <v>34700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1781,8 +1842,8 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1791,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>7100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E33" s="3">
         <v>34700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-43500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E35" s="3">
         <v>34700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-43500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,167 +2312,177 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>275500</v>
+      </c>
+      <c r="E41" s="3">
         <v>377400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>826800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>237000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>269600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>267900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>294300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>277000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>259900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>266600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>299800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>291700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>280000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>260700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>243300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>173400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E42" s="3">
         <v>25800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>34300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>29300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>27900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>33100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>18400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>23600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>22700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>415200</v>
+      </c>
+      <c r="E43" s="3">
         <v>319200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>352700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>344400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>372700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>321400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>352200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>385700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>129300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>130100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>127200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>131100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>152300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>128600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>142600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>132900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,273 +2534,291 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E45" s="3">
         <v>124700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>127700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>128500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>112400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>130300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>118700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>111700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>218700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>169200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>199400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>176600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>215800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>262200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>184200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>833400</v>
+      </c>
+      <c r="E46" s="3">
         <v>847200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1341400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>739200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>782600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>752700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>790600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>633800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>588200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>649200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>619500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>666600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>609500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>671700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>513200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E47" s="3">
         <v>32000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>22700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>28200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>21600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>31000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>30100</v>
       </c>
       <c r="K47" s="3">
         <v>30100</v>
       </c>
       <c r="L47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="M47" s="3">
         <v>31800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>30400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>31900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>30900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>251400</v>
+      </c>
+      <c r="E48" s="3">
         <v>252700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>261200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>270700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>105500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>107800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>106800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>107400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>80600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>64500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>59200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>61200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>63600</v>
-      </c>
-      <c r="P48" s="3">
-        <v>63400</v>
       </c>
       <c r="Q48" s="3">
         <v>63400</v>
       </c>
       <c r="R48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="S48" s="3">
         <v>65900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1863400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1852400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1854300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1872100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1408100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1428300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1421900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1436000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1382700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1397100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1421600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1428000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1440700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1445500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1441600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1453200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>403500</v>
+      </c>
+      <c r="E52" s="3">
         <v>391900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>386900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>369700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>338800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>338400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>365500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>379600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>201900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>174000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>166300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>166900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>157600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>142500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>132400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>137600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3382700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3376200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3866500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3279800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2664600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2648600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2715800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2753000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2329000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2255600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2328800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2305900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2360400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2291800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2333700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2196900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,72 +3140,76 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E57" s="3">
         <v>30000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="3">
         <v>496400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>24</v>
@@ -3092,8 +3226,8 @@
       <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3116,220 +3250,235 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>655900</v>
+      </c>
+      <c r="E59" s="3">
         <v>636300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>662000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>589100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>595700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>557200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>561700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>483700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>681800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>627300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>659400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>571700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>643700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>626400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>665600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>537700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>680800</v>
+      </c>
+      <c r="E60" s="3">
         <v>666300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1192200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>631500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>638200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>601200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>598400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>541000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>735300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>665100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>689300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>604300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>678900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>650900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>683900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>556700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1005300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1124700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1134300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1124300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>669100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>698900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>738700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>778500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>643300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>693100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>642800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>742600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>712400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>712200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>712000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>731800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>258400</v>
+      </c>
+      <c r="E62" s="3">
         <v>257600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>265900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>276200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>155300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>132900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>131000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>112300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>75900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>63100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>68900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>69900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>83600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>93300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>90500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>89500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1944500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2048600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2592400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2032000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1462600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1433000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1468100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1431800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1454400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1421200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1401100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1416800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1474900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1456400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1486400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1378000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-115700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-150400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-157500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-191400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-197100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-182300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-138800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-599400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-612600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-629600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-637500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-650800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-668300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-667300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-666200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1438200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1327600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1274100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1247800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1202000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1215600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1247700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1321200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>874600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>834400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>927700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>889100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>885400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>835400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>847300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>819000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E81" s="3">
         <v>34700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-43500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E83" s="3">
         <v>20500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E89" s="3">
         <v>104500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>87800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>55200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>67600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>141100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>49200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>110800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>73900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>76400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-47900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-30300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-473400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-101200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,163 +5303,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-535600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>513000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>431100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-46400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-74700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-96900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>95000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-45800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-65400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-93000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-41200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-449700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>589800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-32800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>69900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-104600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-16700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>PTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>429100</v>
+      </c>
+      <c r="E8" s="3">
         <v>391000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>351700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>359600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>356100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>335000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>295500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>290500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>334700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>312500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>314800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>307900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>306600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>306400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>291300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>280000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>286300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E9" s="3">
         <v>84600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>79200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>83000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>87400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>85400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>82700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>79900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>77400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>78100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>81600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>83600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>83000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>82800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>82300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>81800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>82100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>342300</v>
+      </c>
+      <c r="E10" s="3">
         <v>306400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>272500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>276600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>268700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>249600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>212800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>210600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>257300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>234400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>233200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>224300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>223600</v>
       </c>
       <c r="P10" s="3">
         <v>223600</v>
       </c>
       <c r="Q10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="R10" s="3">
         <v>209000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>198200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>204200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,64 +947,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E12" s="3">
         <v>69900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>61400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>60000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>65300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>64100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>60600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>61400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>60800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>62400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>61200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>62200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>64000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>60600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>59900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>57700</v>
-      </c>
-      <c r="S12" s="3">
-        <v>57900</v>
       </c>
       <c r="T12" s="3">
         <v>57900</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,69 +1063,75 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>18500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>27400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>7300</v>
+        <v>6500</v>
       </c>
       <c r="E15" s="3">
         <v>7300</v>
@@ -1118,13 +1140,13 @@
         <v>7300</v>
       </c>
       <c r="G15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H15" s="3">
         <v>6800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5900</v>
       </c>
       <c r="J15" s="3">
         <v>5900</v>
@@ -1133,34 +1155,37 @@
         <v>5900</v>
       </c>
       <c r="L15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M15" s="3">
         <v>7800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>7900</v>
       </c>
       <c r="N15" s="3">
         <v>7900</v>
       </c>
       <c r="O15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="P15" s="3">
         <v>7800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>338700</v>
+      </c>
+      <c r="E17" s="3">
         <v>324000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>288300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>309600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>325700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>288500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>286200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>313300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>304600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>301000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>293200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>285500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>289300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>288800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>280000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>272500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>281800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E18" s="3">
         <v>67000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>63400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>50000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-22800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1312,288 +1344,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E21" s="3">
         <v>87600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>84700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>68000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>49500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>63500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>50800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>33400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>43200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>43600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>37600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>38200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>31900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>25300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E22" s="3">
         <v>12100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>31700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>10600</v>
       </c>
       <c r="M22" s="3">
         <v>10600</v>
       </c>
       <c r="N22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="O22" s="3">
         <v>10400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>10200</v>
       </c>
       <c r="Q22" s="3">
         <v>10200</v>
       </c>
       <c r="R22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="S22" s="3">
         <v>11700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E23" s="3">
         <v>55400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>33800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-16400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-12500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E26" s="3">
         <v>53400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>34700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-43500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E27" s="3">
         <v>53400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>34700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-43500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1845,8 +1905,8 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1855,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>7100</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E33" s="3">
         <v>53400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>34700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-43500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E35" s="3">
         <v>53400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>34700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-43500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,176 +2398,186 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>398700</v>
+      </c>
+      <c r="E41" s="3">
         <v>275500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>377400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>826800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>237000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>269600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>267900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>294300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>277000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>259900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>266600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>299800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>291700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>280000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>260700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>243300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>173400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>28100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>34300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>29300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>27900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>33100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>20100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>18400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>23600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>22700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>415800</v>
+      </c>
+      <c r="E43" s="3">
         <v>415200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>319200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>352700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>344400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>372700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>321400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>352200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>385700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>129300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>130100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>127200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>131100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>152300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>128600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>142600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>132900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,288 +2632,306 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E45" s="3">
         <v>114600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>124700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>127700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>128500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>112400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>130300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>118700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>111700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>218700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>169200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>199400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>176600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>215800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>262200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>184200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>936200</v>
+      </c>
+      <c r="E46" s="3">
         <v>833400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>847200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1341400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>739200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>782600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>752700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>790600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>633800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>588200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>649200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>619500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>666600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>609500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>671700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>513200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>31000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>32000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>22700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>28200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>21600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>31000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>30100</v>
       </c>
       <c r="L47" s="3">
         <v>30100</v>
       </c>
       <c r="M47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="N47" s="3">
         <v>31800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>30400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>31900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>30900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>243500</v>
+      </c>
+      <c r="E48" s="3">
         <v>251400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>252700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>261200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>270700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>105500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>107800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>106800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>107400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>80600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>64500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>61200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>63600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>63400</v>
       </c>
       <c r="R48" s="3">
         <v>63400</v>
       </c>
       <c r="S48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="T48" s="3">
         <v>65900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1861200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1863400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1852400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1854300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1872100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1408100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1428300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1421900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1436000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1382700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1397100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1421600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1428000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1440700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1445500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1441600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1453200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E52" s="3">
         <v>403500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>391900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>386900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>369700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>338800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>338400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>365500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>379600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>201900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>174000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>166300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>166900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>157600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>142500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>132400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>137600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3448900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3382700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3376200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3866500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3279800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2664600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2648600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2715800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2753000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2329000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2255600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2328800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2305900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2360400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2291800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2333700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2196900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,64 +3270,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E57" s="3">
         <v>24900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>24600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3208,11 +3341,11 @@
       <c r="E58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="3">
         <v>496400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>24</v>
@@ -3229,8 +3362,8 @@
       <c r="L58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3253,232 +3386,247 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>682200</v>
+      </c>
+      <c r="E59" s="3">
         <v>655900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>636300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>662000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>589100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>595700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>557200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>561700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>483700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>681800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>627300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>659400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>571700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>643700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>626400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>665600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>537700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>712200</v>
+      </c>
+      <c r="E60" s="3">
         <v>680800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>666300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1192200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>631500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>638200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>601200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>598400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>541000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>735300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>665100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>689300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>604300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>678900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>650900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>683900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>556700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>987900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1005300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1124700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1134300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1124300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>669100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>698900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>738700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>778500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>643300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>693100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>642800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>742600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>712400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>712200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>712000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>731800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>253900</v>
+      </c>
+      <c r="E62" s="3">
         <v>258400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>257600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>265900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>276200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>155300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>132900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>131000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>112300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>75900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>63100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>68900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>69900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>83600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>93300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>90500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>89500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1954000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1944500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2048600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2592400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2032000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1462600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1433000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1468100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1431800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1454400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1421200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1401100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1416800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1474900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1456400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1486400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1378000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-62300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-115700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-150400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-157500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-191400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-197100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-182300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-138800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-599400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-612600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-629600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-637500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-650800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-668300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-667300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-666200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1494900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1438200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1327600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1274100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1247800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1202000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1215600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1247700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1321200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>874600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>834400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>927700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>889100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>885400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>835400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>847300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>819000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E81" s="3">
         <v>53400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>34700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-43500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E83" s="3">
         <v>20100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E89" s="3">
         <v>34000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>104500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>87800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>55200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>67600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>141100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>62000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>49200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>110800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>73900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>76400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-47900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-473400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-101200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,172 +5548,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-111100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-535600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>513000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>431100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-46400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-74700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-96900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>95000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-45800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-65400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-93000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-50200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-41200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E101" s="3">
         <v>4200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>123200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-102000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-449700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>589800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-32800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-33100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>69900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-104600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-16700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>PTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>461800</v>
+      </c>
+      <c r="E8" s="3">
         <v>429100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>391000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>351700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>359600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>356100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>335000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>295500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>290500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>334700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>312500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>314800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>307900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>306600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>306400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>291300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>280000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>286300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E9" s="3">
         <v>86800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>84600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>79200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>83000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>87400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>85400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>82700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>79900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>77400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>78100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>81600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>83600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>83000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>82800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>82300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>81800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>82100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>372400</v>
+      </c>
+      <c r="E10" s="3">
         <v>342300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>306400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>272500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>276600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>268700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>249600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>212800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>210600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>257300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>234400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>233200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>224300</v>
-      </c>
-      <c r="P10" s="3">
-        <v>223600</v>
       </c>
       <c r="Q10" s="3">
         <v>223600</v>
       </c>
       <c r="R10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="S10" s="3">
         <v>209000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>198200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>204200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,67 +961,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E12" s="3">
         <v>70800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>69900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>61400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>60000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>65300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>64100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>60600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>61400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>60800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>62400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>61200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>62200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>64000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>60600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>59900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>57700</v>
-      </c>
-      <c r="T12" s="3">
-        <v>57900</v>
       </c>
       <c r="U12" s="3">
         <v>57900</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,75 +1083,81 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E14" s="3">
         <v>4100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>18500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>21100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E15" s="3">
         <v>6500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7300</v>
       </c>
       <c r="F15" s="3">
         <v>7300</v>
@@ -1143,13 +1166,13 @@
         <v>7300</v>
       </c>
       <c r="H15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I15" s="3">
         <v>6800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5900</v>
       </c>
       <c r="K15" s="3">
         <v>5900</v>
@@ -1158,34 +1181,37 @@
         <v>5900</v>
       </c>
       <c r="M15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N15" s="3">
         <v>7800</v>
-      </c>
-      <c r="N15" s="3">
-        <v>7900</v>
       </c>
       <c r="O15" s="3">
         <v>7900</v>
       </c>
       <c r="P15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Q15" s="3">
         <v>7800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>360100</v>
+      </c>
+      <c r="E17" s="3">
         <v>338700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>324000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>288300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>309600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>325700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>288500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>286200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>313300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>304600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>301000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>293200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>285500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>289300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>288800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>280000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>272500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>281800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E18" s="3">
         <v>90400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>67000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>63400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>50000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>46500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1345,303 +1378,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E21" s="3">
         <v>107800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>87600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>84700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>68000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>49500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>63500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>50800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>33400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>43200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>43600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>37600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>38200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>32400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>31900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>25300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E22" s="3">
         <v>11500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>31700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>10600</v>
       </c>
       <c r="N22" s="3">
         <v>10600</v>
       </c>
       <c r="O22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="P22" s="3">
         <v>10400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>10200</v>
       </c>
       <c r="R22" s="3">
         <v>10200</v>
       </c>
       <c r="S22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="T22" s="3">
         <v>11700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E23" s="3">
         <v>77400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>55400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>33800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E24" s="3">
         <v>53900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-16400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>24000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-12500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-12000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E26" s="3">
         <v>23500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>53400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>34700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-43500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E27" s="3">
         <v>23500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>53400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-43500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,31 +1934,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1908,8 +1969,8 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1918,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>7100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E33" s="3">
         <v>23500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>53400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-43500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E35" s="3">
         <v>23500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>53400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-43500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,67 +2485,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>326100</v>
+      </c>
+      <c r="E41" s="3">
         <v>398700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>275500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>377400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>826800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>237000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>269600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>267900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>294300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>277000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>259900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>266600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>299800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>291700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>280000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>260700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>243300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>173400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2467,117 +2557,123 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>28100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>25800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>34300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>29300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>27900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>33100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>25800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>20100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>18400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>23600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>22700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>434500</v>
+      </c>
+      <c r="E43" s="3">
         <v>415800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>415200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>319200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>352700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>344400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>372700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>321400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>352200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>385700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>129300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>130100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>127200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>131100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>152300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>128600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>142600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>132900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,126 +2731,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E45" s="3">
         <v>121700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>114600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>124700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>127700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>128500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>112400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>130300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>111700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>218700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>169200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>199400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>176600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>215800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>262200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>184200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>901800</v>
+      </c>
+      <c r="E46" s="3">
         <v>936200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>833400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>847200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1341400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>739200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>782600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>752700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>790600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>633800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>588200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>649200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>619500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>666600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>609500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>671700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>513200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2762,176 +2867,185 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>31000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>32000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>28200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>21600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>30100</v>
       </c>
       <c r="M47" s="3">
         <v>30100</v>
       </c>
       <c r="N47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="O47" s="3">
         <v>31800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>32500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>30400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>31900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>30900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>24600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>245900</v>
+      </c>
+      <c r="E48" s="3">
         <v>243500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>251400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>252700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>261200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>270700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>105500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>107800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>106800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>107400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>80600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>64500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>59200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>61200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>63600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>63400</v>
       </c>
       <c r="S48" s="3">
         <v>63400</v>
       </c>
       <c r="T48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="U48" s="3">
         <v>65900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2603900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1861200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1863400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1852400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1854300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1872100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1408100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1428300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1421900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1436000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1382700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1397100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1421600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1428000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1440700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1445500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1441600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1453200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,67 +3165,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>429600</v>
+      </c>
+      <c r="E52" s="3">
         <v>408000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>403500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>391900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>386900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>369700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>338800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>338400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>365500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>379600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>201900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>174000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>166300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>166900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>157600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>142500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>132400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>137600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4181200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3448900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3382700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3376200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3866500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3279800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2664600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2648600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2715800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2753000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2329000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2255600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2328800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2305900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2360400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2291800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2333700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2196900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,67 +3401,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E57" s="3">
         <v>30000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>24600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3344,11 +3478,11 @@
       <c r="F58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="3">
         <v>496400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>24</v>
@@ -3365,8 +3499,8 @@
       <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3389,244 +3523,259 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>744600</v>
+      </c>
+      <c r="E59" s="3">
         <v>682200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>655900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>636300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>662000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>589100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>595700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>557200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>561700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>483700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>681800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>627300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>659400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>571700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>643700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>626400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>665600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>537700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>766800</v>
+      </c>
+      <c r="E60" s="3">
         <v>712200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>680800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>666300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1192200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>631500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>638200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>601200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>598400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>541000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>735300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>665100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>689300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>604300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>678900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>650900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>683900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>556700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1508400</v>
+      </c>
+      <c r="E61" s="3">
         <v>987900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1005300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1124700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1134300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1124300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>669100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>698900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>738700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>778500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>643300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>693100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>642800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>742600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>712400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>712200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>712000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>731800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>255500</v>
+      </c>
+      <c r="E62" s="3">
         <v>253900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>258400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>257600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>265900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>276200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>155300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>132900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>131000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>112300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>75900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>63100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>68900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>69900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>83600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>93300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>90500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>89500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2530700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1954000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1944500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2048600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2592400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2032000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1462600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1433000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1468100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1431800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1454400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1421200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1401100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1416800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1474900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1456400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1486400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1378000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-115700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-150400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-157500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-191400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-197100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-182300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-138800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-599400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-612600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-629600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-637500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-650800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-668300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-667300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-666200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1650500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1494900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1438200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1327600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1274100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1247800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1202000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1215600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1247700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1321200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>874600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>834400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>927700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>889100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>885400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>835400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>847300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>819000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E81" s="3">
         <v>23500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>53400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-43500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E83" s="3">
         <v>18800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E89" s="3">
         <v>113800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>34000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>104500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>87800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>55200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>67600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>141100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>62000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>49200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>110800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>32800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>73900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>76400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-47900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-717000</v>
+      </c>
+      <c r="E94" s="3">
         <v>46700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-473400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-101200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,181 +5794,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>527700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-42800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-111100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-535600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>513000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>431100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-46400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-74700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-96900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>95000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-45800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-65400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-93000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-50200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-41200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-9800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E102" s="3">
         <v>123200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-102000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-449700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>589800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-32800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-33100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>17400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>69900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-104600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-16700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>PTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,294 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>435700</v>
+      </c>
+      <c r="E8" s="3">
         <v>461800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>429100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>391000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>351700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>359600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>356100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>335000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>295500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>290500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>334700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>312500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>314800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>307900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>306600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>306400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>291300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>280000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>286300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E9" s="3">
         <v>89400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>86800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>84600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>79200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>83000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>87400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>85400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>82700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>79900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>77400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>78100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>81600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>83600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>83000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>82800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>82300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>81800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>82100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>340600</v>
+      </c>
+      <c r="E10" s="3">
         <v>372400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>342300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>306400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>272500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>276600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>268700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>249600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>212800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>210600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>257300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>234400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>233200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>224300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>223600</v>
       </c>
       <c r="R10" s="3">
         <v>223600</v>
       </c>
       <c r="S10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="T10" s="3">
         <v>209000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>198200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>204200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,70 +975,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E12" s="3">
         <v>72500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>70800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>69900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>61400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>60000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>65300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>64100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>60600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>61400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>60800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>62400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>61200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>62200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>64000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>60600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>59900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>57700</v>
-      </c>
-      <c r="U12" s="3">
-        <v>57900</v>
       </c>
       <c r="V12" s="3">
         <v>57900</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1086,81 +1103,87 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>10800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>18500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>21100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>27400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E15" s="3">
         <v>7700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7300</v>
       </c>
       <c r="G15" s="3">
         <v>7300</v>
@@ -1169,13 +1192,13 @@
         <v>7300</v>
       </c>
       <c r="I15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J15" s="3">
         <v>6800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5900</v>
       </c>
       <c r="L15" s="3">
         <v>5900</v>
@@ -1184,34 +1207,37 @@
         <v>5900</v>
       </c>
       <c r="N15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="O15" s="3">
         <v>7800</v>
-      </c>
-      <c r="O15" s="3">
-        <v>7900</v>
       </c>
       <c r="P15" s="3">
         <v>7900</v>
       </c>
       <c r="Q15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="R15" s="3">
         <v>7800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>362100</v>
+      </c>
+      <c r="E17" s="3">
         <v>360100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>338700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>324000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>288300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>309600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>325700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>288500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>286200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>313300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>304600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>301000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>293200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>285500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>289300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>288800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>280000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>272500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>281800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E18" s="3">
         <v>101700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>90400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>67000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>63400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>50000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>46500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-22800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>11300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1379,318 +1412,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E21" s="3">
         <v>120600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>107800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>87600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>84700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>68000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>49500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>63500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>50800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>33400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>43200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>43600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>37600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>32400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>31900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>25300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E22" s="3">
         <v>12900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>31700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>10600</v>
       </c>
       <c r="O22" s="3">
         <v>10600</v>
       </c>
       <c r="P22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Q22" s="3">
         <v>10400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>10200</v>
       </c>
       <c r="S22" s="3">
         <v>10200</v>
       </c>
       <c r="T22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="U22" s="3">
         <v>11700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E23" s="3">
         <v>86400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>77400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>55400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>33800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-22900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>53900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-16400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-12500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-12000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>2600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E26" s="3">
         <v>109300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>34700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E27" s="3">
         <v>109300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>23500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>34700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-43500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1963,8 +2024,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1972,8 +2033,8 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1982,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>7100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E33" s="3">
         <v>109300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>23500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>53400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-43500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E35" s="3">
         <v>109300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>23500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>53400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-43500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,70 +2572,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>365800</v>
+      </c>
+      <c r="E41" s="3">
         <v>326100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>398700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>275500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>377400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>826800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>237000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>269600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>267900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>294300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>277000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>259900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>266600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>299800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>291700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>280000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>260700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>243300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>173400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2560,120 +2650,126 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>28100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>34300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>29300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>27900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>33100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>25600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>25800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>22800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>20100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>18400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>23600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>22700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>433000</v>
+      </c>
+      <c r="E43" s="3">
         <v>434500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>415800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>415200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>319200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>352700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>344400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>372700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>321400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>352200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>385700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>129300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>130100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>127200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>131100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>152300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>128600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>142600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>132900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,132 +2830,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E45" s="3">
         <v>141100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>121700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>114600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>124700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>127700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>128500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>112400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>130300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>118700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>111700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>218700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>169200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>199400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>176600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>215800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>262200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>184200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>918500</v>
+      </c>
+      <c r="E46" s="3">
         <v>901800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>936200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>833400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>847200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1341400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>739200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>782600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>752700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>790600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>633800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>588200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>649200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>619500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>666600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>609500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>671700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>513200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2870,182 +2975,191 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>31000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>32000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>22700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>28200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>30100</v>
       </c>
       <c r="N47" s="3">
         <v>30100</v>
       </c>
       <c r="O47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="P47" s="3">
         <v>31800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>32500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>30400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>31900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>30900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>24600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>241100</v>
+      </c>
+      <c r="E48" s="3">
         <v>245900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>243500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>251400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>252700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>261200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>270700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>105500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>107800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>106800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>107400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>80600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>64500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>59200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>61200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>63600</v>
-      </c>
-      <c r="S48" s="3">
-        <v>63400</v>
       </c>
       <c r="T48" s="3">
         <v>63400</v>
       </c>
       <c r="U48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="V48" s="3">
         <v>65900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2592000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2603900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1861200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1863400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1852400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1854300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1872100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1408100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1428300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1421900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1436000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1382700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1397100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1421600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1428000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1440700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1445500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1441600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1453200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>454600</v>
+      </c>
+      <c r="E52" s="3">
         <v>429600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>408000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>403500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>391900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>386900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>369700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>338800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>338400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>365500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>379600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>201900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>174000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>166300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>166900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>157600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>142500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>132400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>137600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4206200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4181200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3448900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3382700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3376200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3866500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3279800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2664600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2648600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2715800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2753000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2329000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2255600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2328800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2305900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2360400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2291800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2333700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2196900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,70 +3532,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E57" s="3">
         <v>22200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>42400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>57200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>35200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>24600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3481,11 +3615,11 @@
       <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="3">
         <v>496400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>24</v>
@@ -3502,8 +3636,8 @@
       <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3526,256 +3660,271 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>722800</v>
+      </c>
+      <c r="E59" s="3">
         <v>744600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>682200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>655900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>636300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>662000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>589100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>595700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>557200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>561700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>483700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>681800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>627300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>659400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>571700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>643700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>626400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>665600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>537700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>746200</v>
+      </c>
+      <c r="E60" s="3">
         <v>766800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>712200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>680800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>666300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1192200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>631500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>638200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>601200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>598400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>541000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>735300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>665100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>689300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>604300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>678900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>650900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>683900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>556700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1478900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1508400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>987900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1005300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1124700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1134300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1124300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>669100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>698900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>738700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>778500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>643300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>693100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>642800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>742600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>712400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>712200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>712000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>731800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>256100</v>
+      </c>
+      <c r="E62" s="3">
         <v>255500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>253900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>258400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>257600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>265900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>276200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>155300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>132900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>131000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>112300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>75900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>63100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>68900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>69900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>83600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>93300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>90500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>89500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2481300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2530700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1954000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1944500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2048600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2592400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2032000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1462600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1433000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1468100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1431800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1454400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1421200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1401100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1416800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1474900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1456400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1486400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1378000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E72" s="3">
         <v>70500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-115700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-150400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-157500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-191400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-197100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-182300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-138800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-599400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-612600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-629600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-637500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-650800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-668300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-667300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-666200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1725000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1650500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1494900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1438200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1327600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1274100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1247800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1202000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1215600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1247700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1321200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>874600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>834400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>927700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>889100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>885400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>835400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>847300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>819000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E81" s="3">
         <v>109300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>23500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>53400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-43500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E83" s="3">
         <v>21300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E89" s="3">
         <v>121700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>113800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>34000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>104500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>87800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>55200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>67600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>141100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>62000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>49200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>110800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>25500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>32800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>73900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>76400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-47900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-717000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>46700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-473400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-101200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>7300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6040,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E100" s="3">
         <v>527700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-42800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-111100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-535600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>513000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>431100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-46400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-74700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-96900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>95000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-45800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-65400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-50200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-41200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-9800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-72600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>123200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-102000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-449700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>589800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-32800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>17400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>69900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-104600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-16700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>PTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,307 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>480700</v>
+      </c>
+      <c r="E8" s="3">
         <v>435700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>461800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>429100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>391000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>351700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>359600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>356100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>335000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>295500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>290500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>334700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>312500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>314800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>307900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>306600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>306400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>291300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>280000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>286300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E9" s="3">
         <v>95100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>89400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>86800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>84600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>79200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>83000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>87400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>85400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>82700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>79900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>77400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>78100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>81600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>83600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>83000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>82800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>82300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>81800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>82100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E10" s="3">
         <v>340600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>372400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>342300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>306400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>272500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>276600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>268700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>249600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>212800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>210600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>257300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>234400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>233200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>224300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>223600</v>
       </c>
       <c r="S10" s="3">
         <v>223600</v>
       </c>
       <c r="T10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="U10" s="3">
         <v>209000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>198200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>204200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E12" s="3">
         <v>78100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>72500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>70800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>69900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>61400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>60000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>65300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>64100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>60600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>61400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>60800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>62400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>61200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>62200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>64000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>60600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>59900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>57700</v>
-      </c>
-      <c r="V12" s="3">
-        <v>57900</v>
       </c>
       <c r="W12" s="3">
         <v>57900</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,87 +1123,93 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>18500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>27400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E15" s="3">
         <v>7500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>7300</v>
       </c>
       <c r="H15" s="3">
         <v>7300</v>
@@ -1195,13 +1218,13 @@
         <v>7300</v>
       </c>
       <c r="J15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K15" s="3">
         <v>6800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>5900</v>
       </c>
       <c r="M15" s="3">
         <v>5900</v>
@@ -1210,34 +1233,37 @@
         <v>5900</v>
       </c>
       <c r="O15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P15" s="3">
         <v>7800</v>
-      </c>
-      <c r="P15" s="3">
-        <v>7900</v>
       </c>
       <c r="Q15" s="3">
         <v>7900</v>
       </c>
       <c r="R15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="S15" s="3">
         <v>7800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>365500</v>
+      </c>
+      <c r="E17" s="3">
         <v>362100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>360100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>338700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>324000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>288300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>309600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>325700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>288500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>286200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>313300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>304600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>301000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>293200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>285500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>289300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>288800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>280000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>272500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>281800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E18" s="3">
         <v>73600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>101700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>90400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>67000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>63400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>50000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>30400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-22800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>30100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>11300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1413,333 +1446,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>204900</v>
+      </c>
+      <c r="E21" s="3">
         <v>94100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>120600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>107800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>87600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>84700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>49500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>63500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>50800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>33400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>43200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>37600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>32400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>31900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>25300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E22" s="3">
         <v>13200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>10600</v>
       </c>
       <c r="P22" s="3">
         <v>10600</v>
       </c>
       <c r="Q22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="R22" s="3">
         <v>10400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>10200</v>
       </c>
       <c r="T22" s="3">
         <v>10200</v>
       </c>
       <c r="U22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="V22" s="3">
         <v>11700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>169500</v>
+      </c>
+      <c r="E23" s="3">
         <v>58500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>86400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>77400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>55400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="E24" s="3">
         <v>7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-22900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>53900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-16400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-12500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-12000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>2600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>292900</v>
+      </c>
+      <c r="E26" s="3">
         <v>51200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>109300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>53400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>34700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-43500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>292900</v>
+      </c>
+      <c r="E27" s="3">
         <v>51200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>109300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>53400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>34700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-43500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2027,8 +2088,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2036,8 +2097,8 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2046,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>7100</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>292900</v>
+      </c>
+      <c r="E33" s="3">
         <v>51200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>109300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>53400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>34700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-43500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>292900</v>
+      </c>
+      <c r="E35" s="3">
         <v>51200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>109300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>53400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>34700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-43500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,73 +2659,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>326500</v>
+      </c>
+      <c r="E41" s="3">
         <v>365800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>326100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>398700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>275500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>377400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>826800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>237000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>269600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>267900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>294300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>277000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>259900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>266600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>299800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>291700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>280000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>260700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>243300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>173400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2653,123 +2743,129 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>28100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>25800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>34300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>29300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>33100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>25400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>25600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>22400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>20100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>18400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>19300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>23600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>22700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>541100</v>
+      </c>
+      <c r="E43" s="3">
         <v>433000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>434500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>415800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>415200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>319200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>352700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>344400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>372700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>321400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>352200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>385700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>129300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>130100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>127200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>131100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>152300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>128600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>142600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>132900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,138 +2929,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>205400</v>
+      </c>
+      <c r="E45" s="3">
         <v>119800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>141100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>121700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>114600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>124700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>127700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>128500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>112400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>130300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>118700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>111700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>218700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>169200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>199400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>176600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>215800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>262200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>184200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="E46" s="3">
         <v>918500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>901800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>936200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>833400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>847200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1341400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>739200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>782600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>752700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>790600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>633800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>588200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>649200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>619500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>666600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>609500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>671700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>513200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2978,188 +3083,197 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>31000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>32000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>22700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>28200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>21600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>31000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>30100</v>
       </c>
       <c r="O47" s="3">
         <v>30100</v>
       </c>
       <c r="P47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="Q47" s="3">
         <v>31800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>32500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>30400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>31900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>30900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>24600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>27100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>252600</v>
+      </c>
+      <c r="E48" s="3">
         <v>241100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>245900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>243500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>251400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>252700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>261200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>270700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>105500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>107800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>106800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>107400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>80600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>64500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>59200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>61200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>63600</v>
-      </c>
-      <c r="T48" s="3">
-        <v>63400</v>
       </c>
       <c r="U48" s="3">
         <v>63400</v>
       </c>
       <c r="V48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="W48" s="3">
         <v>65900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2570900</v>
+      </c>
+      <c r="E49" s="3">
         <v>2592000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2603900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1861200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1863400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1852400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1854300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1872100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1408100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1428300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1421900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1436000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1382700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1397100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1421600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1428000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1440700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1445500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1441600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1453200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>611100</v>
+      </c>
+      <c r="E52" s="3">
         <v>454600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>429600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>408000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>403500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>391900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>386900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>369700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>338800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>338400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>365500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>379600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>201900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>174000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>166300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>166900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>157600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>142500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>132400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>137600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4507600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4206200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4181200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3448900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3382700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3376200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3866500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3279800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2664600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2648600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2715800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2753000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2329000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2255600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2328800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2305900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2360400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2291800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2333700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2196900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,73 +3663,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E57" s="3">
         <v>23400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>42500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>57200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>53500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>35200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>24600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3618,11 +3752,11 @@
       <c r="H58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="3">
         <v>496400</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>24</v>
@@ -3639,8 +3773,8 @@
       <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3663,268 +3797,283 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>745900</v>
+      </c>
+      <c r="E59" s="3">
         <v>722800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>744600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>682200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>655900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>636300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>662000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>589100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>595700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>557200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>561700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>483700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>681800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>627300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>659400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>571700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>643700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>626400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>665600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>537700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>779300</v>
+      </c>
+      <c r="E60" s="3">
         <v>746200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>766800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>712200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>680800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>666300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1192200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>631500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>638200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>601200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>598400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>541000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>735300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>665100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>689300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>604300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>678900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>650900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>683900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>556700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1439500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1478900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1508400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>987900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1005300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1124700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1134300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1124300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>669100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>698900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>738700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>778500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>643300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>693100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>642800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>742600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>712400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>712200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>712000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>731800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>250300</v>
+      </c>
+      <c r="E62" s="3">
         <v>256100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>255500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>253900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>258400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>257600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>265900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>276200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>155300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>132900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>131000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>112300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>75900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>63100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>68900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>69900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>83600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>93300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>90500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>89500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2469100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2481300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2530700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1954000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1944500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2048600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2592400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2032000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1462600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1433000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1468100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1431800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1454400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1421200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1401100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1416800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1474900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1456400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1486400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1378000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>414700</v>
+      </c>
+      <c r="E72" s="3">
         <v>121700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>70500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-115700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-150400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-157500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-191400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-197100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-182300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-138800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-599400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-612600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-629600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-637500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-650800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-668300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-667300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-666200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2038500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1725000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1650500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1494900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1438200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1327600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1274100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1247800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1202000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1215600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1247700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1321200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>874600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>834400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>927700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>889100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>885400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>835400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>847300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>819000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>292900</v>
+      </c>
+      <c r="E81" s="3">
         <v>51200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>109300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>53400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>34700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-43500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E83" s="3">
         <v>22500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>18800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E89" s="3">
         <v>88000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>121700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>113800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>34000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>104500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>87800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>55200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>67600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>141100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>62000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>49200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>110800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>25500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>32800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>73900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>76400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-47900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-717000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>46700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-473400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-101200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>7300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-45000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>527700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-42800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-111100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-535600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>513000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>431100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-46400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-74700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-96900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>95000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-45800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-65400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-93000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-50200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-41200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-9800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E102" s="3">
         <v>39700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-72600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>123200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-102000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-449700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>589800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-32800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>17400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>69900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-104600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-16700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>PTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>457700</v>
+      </c>
+      <c r="E8" s="3">
         <v>480700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>435700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>461800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>429100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>391000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>351700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>359600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>356100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>335000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>295500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>290500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>334700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>312500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>314800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>307900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>306600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>306400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>291300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>280000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>286300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E9" s="3">
         <v>99700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>95100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>89400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>86800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>84600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>79200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>83000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>87400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>85400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>82700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>79900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>77400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>78100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>81600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>83600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>83000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>82800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>82300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>81800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>82100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E10" s="3">
         <v>381000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>340600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>372400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>342300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>306400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>272500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>276600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>268700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>249600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>212800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>210600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>257300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>234400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>233200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>224300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>223600</v>
       </c>
       <c r="T10" s="3">
         <v>223600</v>
       </c>
       <c r="U10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="V10" s="3">
         <v>209000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>198200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>204200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,76 +1002,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E12" s="3">
         <v>78400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>78100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>72500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>70800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>69900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>61400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>60000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>65300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>64100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>60600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>61400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>60800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>62400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>61200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>62200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>64000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>60600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>59900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>57700</v>
-      </c>
-      <c r="W12" s="3">
-        <v>57900</v>
       </c>
       <c r="X12" s="3">
         <v>57900</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,93 +1142,99 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>27400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E15" s="3">
         <v>7700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7300</v>
       </c>
       <c r="I15" s="3">
         <v>7300</v>
@@ -1221,13 +1243,13 @@
         <v>7300</v>
       </c>
       <c r="K15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L15" s="3">
         <v>6800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>5900</v>
       </c>
       <c r="N15" s="3">
         <v>5900</v>
@@ -1236,34 +1258,37 @@
         <v>5900</v>
       </c>
       <c r="P15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Q15" s="3">
         <v>7800</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>7900</v>
       </c>
       <c r="R15" s="3">
         <v>7900</v>
       </c>
       <c r="S15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="T15" s="3">
         <v>7800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>395500</v>
+      </c>
+      <c r="E17" s="3">
         <v>365500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>362100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>360100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>338700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>324000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>288300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>309600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>325700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>288500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>286200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>313300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>304600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>301000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>293200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>285500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>289300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>288800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>280000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>272500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>281800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E18" s="3">
         <v>115200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>73600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>101700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>90400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>67000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>63400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>50000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>46500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-22800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>30100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>17600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1447,348 +1479,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E20" s="3">
         <v>67200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E21" s="3">
         <v>204900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>94100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>120600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>107800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>87600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>84700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>68000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>49500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>63500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>50800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>33400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>43600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>37600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>38200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>32400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>31900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>25300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E22" s="3">
         <v>12900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>31700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>10600</v>
       </c>
       <c r="Q22" s="3">
         <v>10600</v>
       </c>
       <c r="R22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="S22" s="3">
         <v>10400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>10200</v>
       </c>
       <c r="U22" s="3">
         <v>10200</v>
       </c>
       <c r="V22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="W22" s="3">
         <v>11700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E23" s="3">
         <v>169500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>86400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>77400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>55400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>33800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-123400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-22900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>53900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-16400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-12000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1700</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>2600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E26" s="3">
         <v>292900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>51200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>109300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>53400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>34700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-43500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E27" s="3">
         <v>292900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>51200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>109300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>23500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>53400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>34700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-43500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2091,8 +2151,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2100,8 +2160,8 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2110,10 +2170,10 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>7100</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-67200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E33" s="3">
         <v>292900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>51200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>109300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>23500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>53400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>34700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-43500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E35" s="3">
         <v>292900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>51200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>109300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>23500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>53400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>34700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-43500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,81 +2745,85 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>296100</v>
+      </c>
+      <c r="E41" s="3">
         <v>326500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>365800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>326100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>398700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>275500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>377400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>826800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>237000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>269600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>267900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>294300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>277000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>259900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>266600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>299800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>291700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>280000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>260700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>243300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>173400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2746,126 +2835,132 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>28100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>34300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>27900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>33100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>25400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>25800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>22800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>20100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>18400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>19300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>23600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>22700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>478700</v>
+      </c>
+      <c r="E43" s="3">
         <v>541100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>433000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>434500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>415800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>415200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>319200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>352700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>344400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>372700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>321400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>352200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>385700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>129300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>130100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>127200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>131100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>152300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>128600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>142600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>132900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,149 +3027,158 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>234500</v>
+      </c>
+      <c r="E45" s="3">
         <v>205400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>119800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>141100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>121700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>114600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>124700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>127700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>128500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>112400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>130300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>118700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>111700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>218700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>169200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>199400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>176600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>215800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>262200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>184200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1009300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1073000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>918500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>901800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>936200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>833400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>847200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1341400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>739200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>782600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>752700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>790600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>633800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>588200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>649200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>619500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>666600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>609500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>671700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>513200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -3086,194 +3190,203 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>31000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>32000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>22700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31000</v>
-      </c>
-      <c r="O47" s="3">
-        <v>30100</v>
       </c>
       <c r="P47" s="3">
         <v>30100</v>
       </c>
       <c r="Q47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="R47" s="3">
         <v>31800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>32500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>30400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>31900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>30900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>24600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>27100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>247100</v>
+      </c>
+      <c r="E48" s="3">
         <v>252600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>241100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>245900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>243500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>251400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>252700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>261200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>270700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>105500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>107800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>106800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>107400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>80600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>64500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>59200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>61200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>63600</v>
-      </c>
-      <c r="U48" s="3">
-        <v>63400</v>
       </c>
       <c r="V48" s="3">
         <v>63400</v>
       </c>
       <c r="W48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="X48" s="3">
         <v>65900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2553800</v>
+      </c>
+      <c r="E49" s="3">
         <v>2570900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2592000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2603900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1861200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1863400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1852400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1854300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1872100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1408100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1428300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1421900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1436000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1382700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1397100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1421600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1428000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1440700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1445500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1441600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1453200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>610400</v>
+      </c>
+      <c r="E52" s="3">
         <v>611100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>454600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>429600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>408000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>403500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>391900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>386900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>369700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>338800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>338400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>365500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>379600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>201900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>174000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>166300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>166900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>157600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>142500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>132400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>137600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4420600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4507600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4206200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4181200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3448900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3382700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3376200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3866500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3279800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2664600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2648600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2715800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2753000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2329000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2255600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2328800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2305900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2360400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2291800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2333700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2196900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,76 +3793,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E57" s="3">
         <v>33400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>57200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>53500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>32700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>35200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>24600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>18400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3755,11 +3888,11 @@
       <c r="I58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" s="3">
         <v>496400</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>24</v>
@@ -3776,8 +3909,8 @@
       <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3800,280 +3933,295 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>747100</v>
+      </c>
+      <c r="E59" s="3">
         <v>745900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>722800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>744600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>682200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>655900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>636300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>662000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>589100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>595700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>557200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>561700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>483700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>681800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>627300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>659400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>571700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>643700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>626400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>665600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>537700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>780000</v>
+      </c>
+      <c r="E60" s="3">
         <v>779300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>746200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>766800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>712200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>680800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>666300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1192200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>631500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>638200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>601200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>598400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>541000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>735300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>665100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>689300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>604300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>678900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>650900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>683900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>556700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1440000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1439500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1478900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1508400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>987900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1005300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1124700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1134300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1124300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>669100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>698900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>738700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>778500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>643300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>693100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>642800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>742600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>712400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>712200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>712000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>731800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>246800</v>
+      </c>
+      <c r="E62" s="3">
         <v>250300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>256100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>255500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>253900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>258400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>257600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>265900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>276200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>155300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>132900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>131000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>112300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>75900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>63100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>68900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>69900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>83600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>93300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>90500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>89500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2466800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2469100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2481300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2530700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1954000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1944500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2048600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2592400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2032000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1462600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1433000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1468100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1431800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1454400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1421200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1401100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1416800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1474900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1456400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1486400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1378000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>460700</v>
+      </c>
+      <c r="E72" s="3">
         <v>414700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>121700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>70500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-62300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-115700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-150400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-157500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-191400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-197100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-182300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-138800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-599400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-612600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-629600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-637500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-650800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-668300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-667300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-666200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1953800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2038500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1725000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1650500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1494900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1438200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1327600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1274100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1247800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1202000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1215600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1247700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1321200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>874600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>834400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>927700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>889100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>885400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>835400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>847300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>819000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E81" s="3">
         <v>292900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>51200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>109300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>23500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>53400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>34700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-43500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E83" s="3">
         <v>22600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>18800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>22600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E89" s="3">
         <v>45300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>88000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>121700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>113800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>34000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>104500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>87800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>55200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>67600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>141100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>62000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>49200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>110800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>25500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>32800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>73900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>76400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-47900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-717000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>46700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-473400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-101200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>7300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-169100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-69700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-45000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>527700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-42800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-111100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-535600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>513000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>431100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-46400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-74700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-96900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>95000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-65400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-93000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-50200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-16700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-41200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-9800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-39200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>39700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-72600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>123200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-102000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-449700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>589800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-32800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-26500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-33100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>17400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>69900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-104600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-16700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>PTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,332 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>505200</v>
+      </c>
+      <c r="E8" s="3">
         <v>457700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>480700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>435700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>461800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>429100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>391000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>351700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>359600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>356100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>335000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>295500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>290500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>334700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>312500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>314800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>307900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>306600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>306400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>291300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>280000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>286300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E9" s="3">
         <v>95100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>99700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>95100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>89400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>86800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>84600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>79200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>83000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>87400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>85400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>82700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>79900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>77400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>78100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>81600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>83600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>83000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>82800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>82300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>81800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>82100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>411900</v>
+      </c>
+      <c r="E10" s="3">
         <v>362600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>381000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>340600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>372400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>342300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>306400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>272500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>276600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>268700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>249600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>212800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>210600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>257300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>234400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>233200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>224300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>223600</v>
       </c>
       <c r="U10" s="3">
         <v>223600</v>
       </c>
       <c r="V10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="W10" s="3">
         <v>209000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>198200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>204200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,79 +1016,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E12" s="3">
         <v>80500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>78400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>78100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>72500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>70800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>69900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>61400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>60000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>65300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>64100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>60600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>61400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>60800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>62400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>61200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>62200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>64000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>60600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>59900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>57700</v>
-      </c>
-      <c r="X12" s="3">
-        <v>57900</v>
       </c>
       <c r="Y12" s="3">
         <v>57900</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1145,79 +1162,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>35100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>27400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1225,19 +1248,19 @@
         <v>8500</v>
       </c>
       <c r="E15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F15" s="3">
         <v>7700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7300</v>
       </c>
       <c r="J15" s="3">
         <v>7300</v>
@@ -1246,13 +1269,13 @@
         <v>7300</v>
       </c>
       <c r="L15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M15" s="3">
         <v>6800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>5900</v>
       </c>
       <c r="O15" s="3">
         <v>5900</v>
@@ -1261,34 +1284,37 @@
         <v>5900</v>
       </c>
       <c r="Q15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="R15" s="3">
         <v>7800</v>
-      </c>
-      <c r="R15" s="3">
-        <v>7900</v>
       </c>
       <c r="S15" s="3">
         <v>7900</v>
       </c>
       <c r="T15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="U15" s="3">
         <v>7800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>7900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E17" s="3">
         <v>395500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>365500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>362100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>360100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>338700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>324000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>288300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>309600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>325700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>288500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>286200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>313300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>304600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>301000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>293200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>285500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>289300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>288800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>280000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>272500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>281800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>159200</v>
+      </c>
+      <c r="E18" s="3">
         <v>62200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>115200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>73600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>101700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>90400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>67000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>63400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>50000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>46500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-22800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>17300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1480,363 +1513,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E20" s="3">
         <v>6200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>67200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E21" s="3">
         <v>90500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>204900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>94100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>120600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>107800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>87600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>84700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>68000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>49500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>63500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>50800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>33400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>43200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>43600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>37600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>38200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>32400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>31900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>25300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E22" s="3">
         <v>13000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>31700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>10600</v>
       </c>
       <c r="R22" s="3">
         <v>10600</v>
       </c>
       <c r="S22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="T22" s="3">
         <v>10400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>10200</v>
       </c>
       <c r="V22" s="3">
         <v>10200</v>
       </c>
       <c r="W22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="X22" s="3">
         <v>11700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>103600</v>
+      </c>
+      <c r="E23" s="3">
         <v>55400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>169500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>58500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>86400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>77400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>55400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>33800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-33400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E24" s="3">
         <v>9300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-123400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-22900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>53900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-16400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-12500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-12000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1700</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>2600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E26" s="3">
         <v>46100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>292900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>51200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>109300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>23500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-43500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E27" s="3">
         <v>46100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>292900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>51200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>109300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>23500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>53400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>34700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-43500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>13200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2119,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2154,8 +2215,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2163,8 +2224,8 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2173,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>7100</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2399,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-67200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E33" s="3">
         <v>46100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>292900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>51200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>109300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>23500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>53400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>34700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-43500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>21000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>13900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E35" s="3">
         <v>46100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>292900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>51200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>109300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>23500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>53400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>34700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-43500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>21000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>13900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,87 +2832,91 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>306700</v>
+      </c>
+      <c r="E41" s="3">
         <v>296100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>326500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>365800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>326100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>398700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>275500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>377400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>826800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>237000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>269600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>267900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>294300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>277000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>259900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>266600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>299800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>291700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>280000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>260700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>243300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>173400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2838,129 +2928,135 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>28100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>34300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>27900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>33100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>25600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>25800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>22400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>22800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>20100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>18400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>19300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>23600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>22700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>510200</v>
+      </c>
+      <c r="E43" s="3">
         <v>478700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>541100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>433000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>434500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>415800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>415200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>319200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>352700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>344400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>372700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>321400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>352200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>385700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>129300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>130100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>127200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>131100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>152300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>128600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>142600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>132900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3030,158 +3126,167 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>150100</v>
+      </c>
+      <c r="E45" s="3">
         <v>234500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>205400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>119800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>141100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>121700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>114600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>124700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>127700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>128500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>112400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>130300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>118700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>111700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>218700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>169200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>199400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>176600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>215800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>262200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>184200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>967000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1009300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1073000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>918500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>901800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>936200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>833400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>847200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1341400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>739200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>782600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>752700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>790600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>633800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>588200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>649200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>619500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>666600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>609500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>671700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>513200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3193,200 +3298,209 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>31000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>32000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>28200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>21600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>31000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>30100</v>
       </c>
       <c r="Q47" s="3">
         <v>30100</v>
       </c>
       <c r="R47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="S47" s="3">
         <v>31800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>32500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>30400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>31900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>30900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>24600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>27100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>242700</v>
+      </c>
+      <c r="E48" s="3">
         <v>247100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>252600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>241100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>245900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>243500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>251400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>252700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>261200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>270700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>105500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>107800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>106800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>107400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>80600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>64500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>59200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>61200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>63600</v>
-      </c>
-      <c r="V48" s="3">
-        <v>63400</v>
       </c>
       <c r="W48" s="3">
         <v>63400</v>
       </c>
       <c r="X48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="Y48" s="3">
         <v>65900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2541500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2553800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2570900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2592000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2603900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1861200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1863400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1852400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1854300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1872100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1408100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1428300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1421900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1436000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1382700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1397100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1421600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1428000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1440700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1445500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1441600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1453200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3644,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>627300</v>
+      </c>
+      <c r="E52" s="3">
         <v>610400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>611100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>454600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>429600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>408000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>403500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>391900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>386900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>369700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>338800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>338400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>365500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>379600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>201900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>174000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>166300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>166900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>157600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>142500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>132400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>137600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4378500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4420600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4507600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4206200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4181200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3448900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3382700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3376200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3866500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3279800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2664600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2648600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2715800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2753000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2329000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2255600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2328800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2305900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2360400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2291800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2333700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2196900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,108 +3924,112 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E57" s="3">
         <v>32900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>44100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>57200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>53500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>35200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>24600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>18400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>19100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>496400</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>24</v>
@@ -3912,8 +4046,8 @@
       <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3936,292 +4070,307 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>758600</v>
+      </c>
+      <c r="E59" s="3">
         <v>747100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>745900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>722800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>744600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>682200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>655900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>636300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>662000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>589100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>595700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>557200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>561700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>483700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>681800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>627300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>659400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>571700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>643700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>626400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>665600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>537700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>782400</v>
+      </c>
+      <c r="E60" s="3">
         <v>780000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>779300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>746200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>766800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>712200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>680800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>666300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1192200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>631500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>638200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>601200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>598400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>541000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>735300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>665100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>689300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>604300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>678900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>650900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>683900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>556700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1265500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1440000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1439500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1478900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1508400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>987900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1005300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1124700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1134300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1124300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>669100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>698900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>738700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>778500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>643300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>693100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>642800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>742600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>712400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>712200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>712000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>731800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>246600</v>
+      </c>
+      <c r="E62" s="3">
         <v>246800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>250300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>256100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>255500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>253900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>258400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>257600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>265900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>276200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>155300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>132900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>131000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>112300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>75900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>63100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>68900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>69900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>83600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>93300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>90500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>89500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2294500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2466800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2469100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2481300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2530700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1954000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1944500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2048600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2592400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2032000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1462600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1433000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1468100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1431800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1454400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1421200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1401100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1416800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1474900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1456400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1486400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1378000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>550400</v>
+      </c>
+      <c r="E72" s="3">
         <v>460700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>414700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>121700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>70500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-38800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-115700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-150400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-157500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-191400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-197100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-182300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-138800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-599400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-612600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-629600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-637500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-650800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-668300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-667300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-666200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2084000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1953800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2038500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1725000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1650500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1494900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1438200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1327600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1274100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1247800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1202000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1215600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1247700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1321200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>874600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>834400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>927700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>889100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>885400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>835400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>847300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>819000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E81" s="3">
         <v>46100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>292900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>51200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>109300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>23500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>53400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>34700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-43500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>21000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>13900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5613,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E83" s="3">
         <v>22100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>18800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>22600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>142300</v>
+      </c>
+      <c r="E89" s="3">
         <v>137700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>45300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>88000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>121700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>113800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>34000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>104500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>87800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>55200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>67600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>141100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>62000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>49200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>110800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>25500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>32800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>73900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>76400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-47900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E94" s="3">
         <v>2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-717000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>46700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-473400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-101200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>7300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6777,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-170800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-169100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-69700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-45000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>527700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-42800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-111100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-535600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>513000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>431100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-46400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-74700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-96900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>95000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-45800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-65400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-93000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-50200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-16700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-41200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-30400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-39200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>39700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-72600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>123200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-102000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-449700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>589800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-32800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-33100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>17400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>69900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-104600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-16700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>PTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,345 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>462500</v>
+      </c>
+      <c r="E8" s="3">
         <v>505200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>457700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>480700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>435700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>461800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>429100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>391000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>351700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>359600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>356100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>335000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>295500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>290500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>334700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>312500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>314800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>307900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>306600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>306400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>291300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>280000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>286300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E9" s="3">
         <v>93300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>95100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>99700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>95100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>89400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>86800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>84600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>79200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>83000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>87400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>85400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>82700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>79900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>77400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>78100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>81600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>83600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>83000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>82800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>82300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>81800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>82100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>360500</v>
+      </c>
+      <c r="E10" s="3">
         <v>411900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>362600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>381000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>340600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>372400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>342300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>306400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>272500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>276600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>268700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>249600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>212800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>210600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>257300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>234400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>233200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>224300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>223600</v>
       </c>
       <c r="V10" s="3">
         <v>223600</v>
       </c>
       <c r="W10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="X10" s="3">
         <v>209000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>198200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>204200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,82 +1030,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E12" s="3">
         <v>81900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>80500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>78400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>78100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>72500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>70800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>69900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>61400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>60000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>65300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>64100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>60600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>61400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>60800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>62400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>61200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>62200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>64000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>60600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>59900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>57700</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>57900</v>
       </c>
       <c r="Z12" s="3">
         <v>57900</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1165,105 +1182,111 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>35100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>27400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="E15" s="3">
         <v>8500</v>
       </c>
       <c r="F15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G15" s="3">
         <v>7700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7300</v>
       </c>
       <c r="K15" s="3">
         <v>7300</v>
@@ -1272,13 +1295,13 @@
         <v>7300</v>
       </c>
       <c r="M15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N15" s="3">
         <v>6800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>5900</v>
       </c>
       <c r="P15" s="3">
         <v>5900</v>
@@ -1287,34 +1310,37 @@
         <v>5900</v>
       </c>
       <c r="R15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="S15" s="3">
         <v>7800</v>
-      </c>
-      <c r="S15" s="3">
-        <v>7900</v>
       </c>
       <c r="T15" s="3">
         <v>7900</v>
       </c>
       <c r="U15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="V15" s="3">
         <v>7800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>7900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>382500</v>
+      </c>
+      <c r="E17" s="3">
         <v>346000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>395500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>365500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>362100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>360100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>338700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>324000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>288300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>309600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>325700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>288500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>286200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>313300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>304600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>301000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>293200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>285500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>289300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>288800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>280000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>272500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>281800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E18" s="3">
         <v>159200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>62200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>115200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>73600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>101700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>90400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>67000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>63400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>46500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>30100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>22400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>11300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1514,378 +1547,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-43400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>67200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E21" s="3">
         <v>137200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>90500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>204900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>94100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>120600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>107800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>87600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>84700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>68000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>49500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>63500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>50800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>33400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>43200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>43600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>37600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>38200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>32400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>31900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>25300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E22" s="3">
         <v>12200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>10600</v>
       </c>
       <c r="S22" s="3">
         <v>10600</v>
       </c>
       <c r="T22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="U22" s="3">
         <v>10400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>10200</v>
       </c>
       <c r="W22" s="3">
         <v>10200</v>
       </c>
       <c r="X22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Y22" s="3">
         <v>11700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E23" s="3">
         <v>103600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>55400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>169500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>58500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>86400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>77400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>55400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>33800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-33400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E24" s="3">
         <v>13900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-123400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-22900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>53900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-16400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-12500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-7000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-12000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1700</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>2600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1958,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E26" s="3">
         <v>89700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>46100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>292900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>51200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>109300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>53400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>35500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>21000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E27" s="3">
         <v>89700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>46100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>292900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>51200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>109300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>23500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>53400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>21000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>13200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2218,8 +2279,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2227,8 +2288,8 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2237,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>7100</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2254,8 +2315,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,156 +2469,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E32" s="3">
         <v>43400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-67200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E33" s="3">
         <v>89700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>46100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>292900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>51200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>109300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>23500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>53400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>34700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>21000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>13900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E35" s="3">
         <v>89700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>46100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>292900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>51200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>109300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>23500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>53400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>34700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>21000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>13900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,82 +2919,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>322300</v>
+      </c>
+      <c r="E41" s="3">
         <v>306700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>296100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>326500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>365800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>326100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>398700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>275500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>377400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>826800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>237000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>269600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>267900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>294300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>277000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>259900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>266600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>299800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>291700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>280000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>260700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>243300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>173400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2918,8 +3008,8 @@
       <c r="E42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2931,132 +3021,138 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>28100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>34300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>27900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>33100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>25400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>25600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>25800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>22400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>22800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>20100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>18400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>19300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>23600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>22700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>473300</v>
+      </c>
+      <c r="E43" s="3">
         <v>510200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>478700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>541100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>433000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>434500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>415800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>415200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>319200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>352700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>344400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>372700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>321400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>352200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>385700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>129300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>130100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>127200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>131100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>152300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>128600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>142600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>132900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3129,156 +3225,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>152800</v>
+      </c>
+      <c r="E45" s="3">
         <v>150100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>234500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>205400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>119800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>141100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>121700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>114600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>124700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>127700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>128500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>112400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>130300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>118700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>111700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>218700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>169200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>199400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>176600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>215800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>262200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>184200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>948400</v>
+      </c>
+      <c r="E46" s="3">
         <v>967000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1009300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1073000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>918500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>901800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>936200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>833400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>847200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1341400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>739200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>782600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>752700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>790600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>633800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>588200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>649200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>619500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>666600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>609500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>671700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>513200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3288,8 +3393,8 @@
       <c r="E47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3301,206 +3406,215 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>31000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>22700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>28200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>21600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>31000</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>30100</v>
       </c>
       <c r="R47" s="3">
         <v>30100</v>
       </c>
       <c r="S47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="T47" s="3">
         <v>31800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>32500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>30400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>31900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>30900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>24600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>27100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>234200</v>
+      </c>
+      <c r="E48" s="3">
         <v>242700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>247100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>252600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>241100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>245900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>243500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>251400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>252700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>261200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>270700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>105500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>107800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>106800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>107400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>80600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>64500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>59200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>61200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>63600</v>
-      </c>
-      <c r="W48" s="3">
-        <v>63400</v>
       </c>
       <c r="X48" s="3">
         <v>63400</v>
       </c>
       <c r="Y48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="Z48" s="3">
         <v>65900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2781300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2541500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2553800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2570900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2592000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2603900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1861200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1863400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1852400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1854300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1872100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1408100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1428300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1421900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1436000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1382700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1397100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1421600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1428000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1440700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1445500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1441600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1453200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,82 +3764,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>641600</v>
+      </c>
+      <c r="E52" s="3">
         <v>627300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>610400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>611100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>454600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>429600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>408000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>403500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>391900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>386900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>369700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>338800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>338400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>365500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>379600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>201900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>174000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>166300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>166900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>157600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>142500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>132400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>137600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4605500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4378500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4420600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4507600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4206200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4181200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3448900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3382700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3376200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3866500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3279800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2664600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2648600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2715800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2753000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2329000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2255600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2328800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2305900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2360400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2291800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2333700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2196900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,82 +4055,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E57" s="3">
         <v>23700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>57200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>53500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>29900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>32700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>35200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>24600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>18400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>19100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4025,14 +4159,14 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>496400</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>24</v>
@@ -4049,8 +4183,8 @@
       <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4073,304 +4207,319 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>753200</v>
+      </c>
+      <c r="E59" s="3">
         <v>758600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>747100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>745900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>722800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>744600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>682200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>655900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>636300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>662000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>589100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>595700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>557200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>561700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>483700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>681800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>627300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>659400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>571700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>643700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>626400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>665600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>537700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>769700</v>
+      </c>
+      <c r="E60" s="3">
         <v>782400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>780000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>779300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>746200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>766800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>712200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>680800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>666300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1192200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>631500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>638200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>601200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>598400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>541000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>735300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>665100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>689300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>604300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>678900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>650900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>683900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>556700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1425100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1265500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1440000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1439500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1478900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1508400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>987900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1005300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1124700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1134300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1124300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>669100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>698900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>738700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>778500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>643300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>693100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>642800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>742600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>712400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>712200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>712000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>731800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>253600</v>
+      </c>
+      <c r="E62" s="3">
         <v>246600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>246800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>250300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>256100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>255500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>253900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>258400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>257600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>265900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>276200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>155300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>132900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>131000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>112300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>75900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>63100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>68900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>69900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>83600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>93300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>90500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>89500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2448400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2294500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2466800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2469100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2481300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2530700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1954000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1944500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2048600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2592400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2032000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1462600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1433000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1468100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1431800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1454400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1421200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1401100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1416800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1474900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1456400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1486400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1378000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>620900</v>
+      </c>
+      <c r="E72" s="3">
         <v>550400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>460700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>414700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>121700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>70500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-62300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-115700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-150400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-157500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-191400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-197100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-182300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-138800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-599400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-612600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-629600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-637500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-650800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-668300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-667300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-666200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2157200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2084000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1953800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2038500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1725000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1650500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1494900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1438200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1327600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1274100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1247800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1202000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1215600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1247700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1321200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>874600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>834400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>927700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>889100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>885400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>835400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>847300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>819000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E81" s="3">
         <v>89700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>46100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>292900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>51200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>109300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>23500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>53400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>34700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>21000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>13900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5812,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E83" s="3">
         <v>21400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>18800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E89" s="3">
         <v>142300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>137700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>45300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>88000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>121700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>113800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>34000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>104500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>87800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>55200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>67600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>141100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>62000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>49200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>110800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>25500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>32800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>73900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>76400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-47900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-237000</v>
+      </c>
+      <c r="E94" s="3">
         <v>41400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-717000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>46700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-473400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-101200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>7300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6717,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6792,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,226 +7023,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>146700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-170800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-169100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-69700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-45000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>527700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-42800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-111100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-535600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>513000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>431100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-46400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-74700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-96900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>95000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-45800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-65400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-93000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-50200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-16700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-41200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-9800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E102" s="3">
         <v>10800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-30400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>39700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-72600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>123200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-102000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-449700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>589800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-32800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-33100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>17400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>69900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-104600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-16700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>PTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,370 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>465900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>507900</v>
+      </c>
+      <c r="F8" s="3">
         <v>462500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>505200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>457700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>480700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>435700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>461800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>429100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>391000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>351700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>359600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>356100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>335000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>295500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>290500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>334700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>312500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>314800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>307900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>306600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>306400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>291300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>280000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>286300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>95500</v>
+      </c>
+      <c r="F9" s="3">
         <v>102000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>93300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>95100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>99700</v>
       </c>
       <c r="H9" s="3">
         <v>95100</v>
       </c>
       <c r="I9" s="3">
+        <v>99700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>95100</v>
+      </c>
+      <c r="K9" s="3">
         <v>89400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>86800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>84600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>79200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>83000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>87400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>85400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>82700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>79900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>77400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>78100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>81600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>83600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>83000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>82800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>82300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>81800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>82100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>370100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>412400</v>
+      </c>
+      <c r="F10" s="3">
         <v>360500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>411900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>362600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>381000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>340600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>372400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>342300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>306400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>272500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>276600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>268700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>249600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>212800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>210600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>257300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>234400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>233200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>224300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>223600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>223600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>209000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>198200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>204200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,8 +1056,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1040,76 +1067,82 @@
         <v>88200</v>
       </c>
       <c r="E12" s="3">
+        <v>88200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>88200</v>
+      </c>
+      <c r="G12" s="3">
         <v>81900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>80500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>78400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>78100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>72500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>70800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>69900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>61400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>60000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>65300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>64100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>60600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>61400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>60800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>62400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>61200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>62200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>64000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>60600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>59900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>57700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>57900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>57900</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1185,162 +1218,180 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="E14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>35100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>10800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>4100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>18500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>21100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>7600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>27400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>18900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>3200</v>
-      </c>
-      <c r="U14" s="3">
-        <v>200</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1100</v>
       </c>
       <c r="W14" s="3">
         <v>200</v>
       </c>
       <c r="X14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>1100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>6500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F15" s="3">
         <v>8900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>8500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>8500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7500</v>
       </c>
       <c r="I15" s="3">
         <v>7700</v>
       </c>
       <c r="J15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L15" s="3">
         <v>6500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7300</v>
       </c>
       <c r="M15" s="3">
         <v>7300</v>
       </c>
       <c r="N15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P15" s="3">
         <v>6800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>6100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>5900</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>5900</v>
       </c>
       <c r="R15" s="3">
         <v>5900</v>
       </c>
       <c r="S15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="T15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="U15" s="3">
         <v>7800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>7900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>7900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>7800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>8100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>8000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>7900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>8100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1416,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>361900</v>
+      </c>
+      <c r="F17" s="3">
         <v>382500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>346000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>395500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>365500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>362100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>360100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>338700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>324000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>288300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>309600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>325700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>288500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>286200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>313300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>304600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>301000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>293200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>285500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>289300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>288800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>280000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>272500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>281800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>104900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>146000</v>
+      </c>
+      <c r="F18" s="3">
         <v>80000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>159200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>62200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>115200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>73600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>101700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>90400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>67000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>63400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>50000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>30400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>46500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>9300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-22800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>30100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>11500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>21600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>22400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>17300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>17600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>11300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>7500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>4500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1548,393 +1613,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F20" s="3">
         <v>34500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-43400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>6200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>67200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>3200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>174900</v>
+      </c>
+      <c r="F21" s="3">
         <v>136500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>137200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>90500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>204900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>94100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>120600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>107800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>87600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>84700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>68000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>49500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>63500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>29400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>50800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>33400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>43200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>43600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>37600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>38200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>32400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>31900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>25300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F22" s="3">
         <v>13800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>12200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>13000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>12900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>13200</v>
       </c>
       <c r="I22" s="3">
         <v>12900</v>
       </c>
       <c r="J22" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>12900</v>
+      </c>
+      <c r="L22" s="3">
         <v>11500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>12100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>19700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>31700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>10900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>10600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>10800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>11400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>10300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>10600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>10600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>10400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>10000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>10200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>10200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>11700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>10300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>137400</v>
+      </c>
+      <c r="F23" s="3">
         <v>100800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>103600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>55400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>169500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>58500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>86400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>77400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>55400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>44500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>15800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>19000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>33800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-33400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>20400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>10000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>11500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>6500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>5500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-6500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F24" s="3">
         <v>30300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>13900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>9300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-123400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-22900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>53900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>9800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-16400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>24000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>14300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>10100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-12500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>3600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-12000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1700</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>2600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2010,162 +2107,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>106800</v>
+      </c>
+      <c r="F26" s="3">
         <v>70500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>89700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>46100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>292900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>51200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>109300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>23500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>53400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>34700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>35500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>9800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-43500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>21000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>13200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>17000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>7900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>6800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>17400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>106800</v>
+      </c>
+      <c r="F27" s="3">
         <v>70500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>89700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>46100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>292900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>51200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>109300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>23500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>53400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>34700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>35500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>9800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-43500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>21000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>13200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>17000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>7900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>6800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>17400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2241,8 +2356,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2282,32 +2403,32 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>7100</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2318,8 +2439,14 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2522,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,162 +2605,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-34500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>43400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-6200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-67200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>106800</v>
+      </c>
+      <c r="F33" s="3">
         <v>70500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>89700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>46100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>292900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>51200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>109300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>23500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>53400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>34700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>7200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>35500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>9800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-43500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>21000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>13200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>17000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>7900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>13900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>17400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2854,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>106800</v>
+      </c>
+      <c r="F35" s="3">
         <v>70500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>89700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>46100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>292900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>51200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>109300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>23500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>53400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>34700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>7200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>35500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>9800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-43500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>21000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>13200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>17000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>7900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>13900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>17400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +3060,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,96 +3091,104 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>387600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>272200</v>
+      </c>
+      <c r="F41" s="3">
         <v>322300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>306700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>296100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>326500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>365800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>326100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>398700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>275500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>377400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>826800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>237000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>269600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>267900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>294300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>277000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>259900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>266600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>299800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>291700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>280000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>260700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>243300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>173400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>24</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -3024,135 +3203,147 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>28100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>25800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>34300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>29300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>27900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>33100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>25400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>25600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>25800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>22400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>22800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>20100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>18400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>19300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>23600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>22700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>562000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>636600</v>
+      </c>
+      <c r="F43" s="3">
         <v>473300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>510200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>478700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>541100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>433000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>434500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>415800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>415200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>319200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>352700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>344400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>372700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>321400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>352200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>385700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>129300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>130100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>127200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>131100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>152300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>128600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>142600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>132900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3228,173 +3419,191 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>177200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>159900</v>
+      </c>
+      <c r="F45" s="3">
         <v>152800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>150100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>234500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>205400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>119800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>141100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>121700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>114600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>124700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>127700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>128500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>112400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>130300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>118700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>111700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>218700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>169200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>199400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>176600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>215800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>200900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>262200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>184200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1126800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1068700</v>
+      </c>
+      <c r="F46" s="3">
         <v>948400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>967000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1009300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1073000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>918500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>901800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>936200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>833400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>847200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1341400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>739200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>782600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>752700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>790600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>800000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>633800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>588200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>649200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>619500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>666600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>609500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>671700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>513200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>24</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3409,212 +3618,230 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>31000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>32000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>22700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>28200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>29500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>21600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>31000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>30100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>30100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>31800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>32500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>30400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>31900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>30900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>24600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>27100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>243800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>235900</v>
+      </c>
+      <c r="F48" s="3">
         <v>234200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>242700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>247100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>252600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>241100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>245900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>243500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>251400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>252700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>261200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>270700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>105500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>107800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>106800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>107400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>80600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>64500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>59200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>61200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>63600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>63400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>63400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>65900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2762400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2736400</v>
+      </c>
+      <c r="F49" s="3">
         <v>2781300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2541500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2553800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2570900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2592000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2603900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1861200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1863400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1852400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1854300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1872100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1408100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1428300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1421900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1436000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1382700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1397100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1421600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1428000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1440700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1445500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1441600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1453200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3917,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,85 +4000,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>662800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>646400</v>
+      </c>
+      <c r="F52" s="3">
         <v>641600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>627300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>610400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>611100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>454600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>429600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>408000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>403500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>391900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>386900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>369700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>338800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>338400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>365500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>379600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>201900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>174000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>166300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>166900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>157600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>142500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>132400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>137600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4166,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4795800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4687300</v>
+      </c>
+      <c r="F54" s="3">
         <v>4605500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4378500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4420600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4507600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4206200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4181200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3448900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3382700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3376200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3866500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3279800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2664600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2648600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2715800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2753000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2329000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2255600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2328800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2305900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2360400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2291800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2333700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2196900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4284,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,85 +4315,93 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>40200</v>
+      </c>
+      <c r="F57" s="3">
         <v>16500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>23700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>32900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>33400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>23400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>22200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>24900</v>
       </c>
       <c r="L57" s="3">
         <v>30000</v>
       </c>
       <c r="M57" s="3">
+        <v>24900</v>
+      </c>
+      <c r="N57" s="3">
+        <v>30000</v>
+      </c>
+      <c r="O57" s="3">
         <v>33700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>42500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>42400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>44100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>36700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>57200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>53500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>37800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>29900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>32700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>35200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>24600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>18400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>19100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4162,17 +4429,17 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>24</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>496400</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>24</v>
+      <c r="O58" s="3">
+        <v>496400</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>24</v>
@@ -4186,11 +4453,11 @@
       <c r="S58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4210,316 +4477,346 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>747800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>752100</v>
+      </c>
+      <c r="F59" s="3">
         <v>753200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>758600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>747100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>745900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>722800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>744600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>682200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>655900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>636300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>662000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>589100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>595700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>557200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>561700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>483700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>681800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>627300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>659400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>571700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>643700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>626400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>665600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>537700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>786700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>792300</v>
+      </c>
+      <c r="F60" s="3">
         <v>769700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>782400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>780000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>779300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>746200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>766800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>712200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>680800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>666300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1192200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>631500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>638200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>601200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>598400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>541000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>735300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>665100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>689300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>604300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>678900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>650900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>683900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>556700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1351200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1350600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1425100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1265500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1440000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1439500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1478900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1508400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>987900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1005300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1124700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1134300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1124300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>669100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>698900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>738700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>778500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>643300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>693100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>642800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>742600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>712400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>712200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>712000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>731800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>257300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>248300</v>
+      </c>
+      <c r="F62" s="3">
         <v>253600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>246600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>246800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>250300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>256100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>255500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>253900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>258400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>257600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>265900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>276200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>155300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>132900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>131000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>112300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>75900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>63100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>68900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>69900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>83600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>93300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>90500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>89500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4892,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4672,8 +4975,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +5058,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2395200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2391200</v>
+      </c>
+      <c r="F66" s="3">
         <v>2448400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2294500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2466800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2469100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2481300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2530700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1954000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1944500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2048600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2592400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2032000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1462600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1433000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1468100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1431800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1454400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1421200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1401100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1416800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1474900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1456400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1486400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1378000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5176,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5255,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5338,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5421,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5504,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>802800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>727700</v>
+      </c>
+      <c r="F72" s="3">
         <v>620900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>550400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>460700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>414700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>121700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>70500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-38800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-62300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-115700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-150400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-157500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-191400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-197100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-182300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-138800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-599400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-612600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-629600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-637500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-650800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-668300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-667300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-666200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5670,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5753,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5836,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2400500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2296000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2157200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2084000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1953800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2038500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1725000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1650500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1494900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1438200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1327600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1274100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1247800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1202000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1215600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1247700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1321200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>874600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>834400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>927700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>889100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>885400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>835400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>847300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>819000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +6002,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>106800</v>
+      </c>
+      <c r="F81" s="3">
         <v>70500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>89700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>46100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>292900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>51200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>109300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>23500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>53400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>34700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>7200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>35500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>9800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-43500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>21000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>13200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>17000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>7900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>13900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>17400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,85 +6208,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F83" s="3">
         <v>22000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>21400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>22100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>22600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>22500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>21300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>18800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>20100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>20500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>20600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>19600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>19200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>19100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>19500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>20100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>22100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>22600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>21700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>21000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>22600</v>
-      </c>
-      <c r="X83" s="3">
-        <v>21500</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>21200</v>
       </c>
       <c r="Z83" s="3">
         <v>21500</v>
       </c>
       <c r="AA83" s="3">
+        <v>21200</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>21500</v>
+      </c>
+      <c r="AC83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6370,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6453,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6536,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6619,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6702,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>180900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F89" s="3">
         <v>116800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>142300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>137700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>45300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>88000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>121700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>113800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>34000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>104500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>87800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>55200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>67600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>141100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>21200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>62000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>49200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>110800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>25500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>32800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>73900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>76400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-47900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6820,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-13100</v>
       </c>
       <c r="H91" s="3">
         <v>-3400</v>
       </c>
       <c r="I91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-4700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-20900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-30300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-17400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-7500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-4800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-6400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-6100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-15400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-14200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6982,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +7065,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-237000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>41400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-13000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-717000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>46700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-29000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-20300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-473400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-27100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-101200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-19100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-7400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-13300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-9400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-6300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>7300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +7183,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6795,8 +7262,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7345,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7428,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,235 +7511,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="F100" s="3">
         <v>146700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-170800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-169100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-69700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-45000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>527700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-42800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-111100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-535600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>513000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>431100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-46400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-74700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-96900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>95000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-45800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-65400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-93000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-6700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-9400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-50200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-16700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-41200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-10900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-7700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-4700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-4200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-9400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>3200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>2600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>2500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>5400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-9800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="F102" s="3">
         <v>15600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>10800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-30400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-39200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>39700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-72600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>123200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-102000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-449700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>589800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-32800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>17300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>17000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-7100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-33100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>7700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>12100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>19300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>17400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>69900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-104600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-16700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,370 +665,383 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>542200</v>
+      </c>
+      <c r="E8" s="3">
         <v>465900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>507900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>462500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>505200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>457700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>480700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>435700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>461800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>429100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>391000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>351700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>359600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>356100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>335000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>295500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>290500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>334700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>312500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>314800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>307900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>306600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>306400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>291300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>280000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>286300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E9" s="3">
         <v>95800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>95500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>102000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>93300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>95100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>99700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>95100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>89400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>86800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>84600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>79200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>83000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>87400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>85400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>82700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>79900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>77400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>78100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>81600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>83600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>83000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>82800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>82300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>81800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>82100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>428700</v>
+      </c>
+      <c r="E10" s="3">
         <v>370100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>412400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>360500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>411900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>362600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>381000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>340600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>372400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>342300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>306400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>272500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>276600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>268700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>249600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>212800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>210600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>257300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>234400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>233200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>224300</v>
-      </c>
-      <c r="X10" s="3">
-        <v>223600</v>
       </c>
       <c r="Y10" s="3">
         <v>223600</v>
       </c>
       <c r="Z10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="AA10" s="3">
         <v>209000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>198200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>204200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,13 +1071,14 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>88200</v>
+        <v>100300</v>
       </c>
       <c r="E12" s="3">
         <v>88200</v>
@@ -1073,76 +1087,79 @@
         <v>88200</v>
       </c>
       <c r="G12" s="3">
+        <v>88200</v>
+      </c>
+      <c r="H12" s="3">
         <v>81900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>80500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>78400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>78100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>72500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>70800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>69900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>61400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>60000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>65300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>64100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>60600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>61400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>60800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>62400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>61200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>62200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>64000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>60600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>59900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>57700</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>57900</v>
       </c>
       <c r="AC12" s="3">
         <v>57900</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1224,123 +1241,129 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E14" s="3">
         <v>5500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>35100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>21100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>27400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>18900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>6500</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E15" s="3">
         <v>8000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>8500</v>
       </c>
       <c r="H15" s="3">
         <v>8500</v>
       </c>
       <c r="I15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J15" s="3">
         <v>7700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>7300</v>
       </c>
       <c r="N15" s="3">
         <v>7300</v>
@@ -1349,13 +1372,13 @@
         <v>7300</v>
       </c>
       <c r="P15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>6800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>5900</v>
       </c>
       <c r="S15" s="3">
         <v>5900</v>
@@ -1364,34 +1387,37 @@
         <v>5900</v>
       </c>
       <c r="U15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="V15" s="3">
         <v>7800</v>
-      </c>
-      <c r="V15" s="3">
-        <v>7900</v>
       </c>
       <c r="W15" s="3">
         <v>7900</v>
       </c>
       <c r="X15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Y15" s="3">
         <v>7800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>7900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>8100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,174 +1444,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>419600</v>
+      </c>
+      <c r="E17" s="3">
         <v>361000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>361900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>382500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>346000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>395500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>365500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>362100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>360100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>338700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>324000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>288300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>309600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>325700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>288500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>286200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>313300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>304600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>301000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>293200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>285500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>289300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>288800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>280000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>272500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>281800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>122600</v>
+      </c>
+      <c r="E18" s="3">
         <v>104900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>146000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>80000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>159200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>62200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>115200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>73600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>101700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>67000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>63400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>50000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>46500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-22800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>30100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>22400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>17300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>17600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>11300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>7500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1615,423 +1648,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>34500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-43400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>67200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E21" s="3">
         <v>124100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>174900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>136500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>137200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>90500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>204900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>94100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>120600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>107800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>87600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>84700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>68000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>49500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>63500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>29400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>50800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>33400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>43200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>43600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>37600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>38200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>32400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>31900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>25300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E22" s="3">
         <v>16400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>31700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>10600</v>
       </c>
       <c r="V22" s="3">
         <v>10600</v>
       </c>
       <c r="W22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="X22" s="3">
         <v>10400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>10200</v>
       </c>
       <c r="Z22" s="3">
         <v>10200</v>
       </c>
       <c r="AA22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="AB22" s="3">
         <v>11700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>10300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E23" s="3">
         <v>86400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>137400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>103600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>55400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>169500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>58500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>86400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>77400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>55400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>33800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-33400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>11500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-6500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E24" s="3">
         <v>11400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>30500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>30300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-123400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-22900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>53900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-12500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-7000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1700</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>2600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2113,174 +2162,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E26" s="3">
         <v>75000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>106800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>70500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>89700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>46100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>292900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>51200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>109300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>35500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-43500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>21000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>13200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>17400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-9100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E27" s="3">
         <v>75000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>106800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>70500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>89700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>46100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>292900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>51200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>109300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>53400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>34700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-43500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>21000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>13200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>17400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-9100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2362,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2409,8 +2470,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2418,8 +2479,8 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2428,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>7100</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2445,8 +2506,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,174 +2678,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-34500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>43400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-67200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E33" s="3">
         <v>75000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>106800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>70500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>89700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>46100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>292900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>51200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>109300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>53400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-43500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>21000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>13200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>13900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>17400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-9100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,179 +2936,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E35" s="3">
         <v>75000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>106800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>70500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>89700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>46100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>292900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>51200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>109300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>53400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-43500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>21000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>13200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>13900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>17400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-9100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,91 +3179,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>320500</v>
+      </c>
+      <c r="E41" s="3">
         <v>387600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>272200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>322300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>306700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>296100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>326500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>365800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>326100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>398700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>275500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>377400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>826800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>237000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>269600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>267900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>294300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>277000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>259900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>266600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>299800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>291700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>280000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>260700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>243300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>173400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3209,141 +3299,147 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>28100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>25800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>34300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>27900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>33100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>25400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>25600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>25800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>22400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>22800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>20100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>18400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>19300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>23600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>22700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>643000</v>
+      </c>
+      <c r="E43" s="3">
         <v>562000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>636600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>473300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>510200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>478700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>541100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>433000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>434500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>415800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>415200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>319200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>352700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>344400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>372700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>321400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>352200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>385700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>129300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>130100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>127200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>131100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>152300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>128600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>142600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>132900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3425,174 +3521,183 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>202900</v>
+      </c>
+      <c r="E45" s="3">
         <v>177200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>159900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>152800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>150100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>234500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>205400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>119800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>141100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>121700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>114600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>124700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>127700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>128500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>112400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>130300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>118700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>111700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>218700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>169200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>199400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>176600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>215800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>200900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>262200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>184200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1166400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1126800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1068700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>948400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>967000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1009300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1073000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>918500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>901800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>936200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>833400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>847200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1341400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>739200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>782600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>752700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>790600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>633800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>588200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>649200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>619500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>666600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>609500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>671700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>513200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3624,224 +3729,233 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>31000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>28200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>29500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>21600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>31000</v>
-      </c>
-      <c r="T47" s="3">
-        <v>30100</v>
       </c>
       <c r="U47" s="3">
         <v>30100</v>
       </c>
       <c r="V47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="W47" s="3">
         <v>31800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>32500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>30400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>31900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>30900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>24600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>27100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>242300</v>
+      </c>
+      <c r="E48" s="3">
         <v>243800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>235900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>234200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>242700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>247100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>252600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>241100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>245900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>243500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>251400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>252700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>261200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>270700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>105500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>107800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>106800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>107400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>80600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>64500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>59200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>61200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>63600</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>63400</v>
       </c>
       <c r="AA48" s="3">
         <v>63400</v>
       </c>
       <c r="AB48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="AC48" s="3">
         <v>65900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4348300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2762400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2736400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2781300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2541500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2553800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2570900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2592000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2603900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1861200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1863400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1852400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1854300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1872100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1408100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1428300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1421900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1436000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1382700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1397100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1421600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1428000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1440700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1445500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1441600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1453200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,91 +4123,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>542600</v>
+      </c>
+      <c r="E52" s="3">
         <v>662800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>646400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>641600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>627300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>610400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>611100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>454600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>429600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>408000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>403500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>391900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>386900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>369700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>338800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>338400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>365500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>379600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>201900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>174000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>166300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>166900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>157600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>142500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>132400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>137600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,91 +4295,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6299600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4795800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4687300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4605500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4378500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4420600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4507600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4206200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4181200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3448900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3382700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3376200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3866500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3279800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2664600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2648600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2715800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2753000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2329000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2255600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2328800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2305900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2360400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2291800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2333700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2196900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,91 +4447,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E57" s="3">
         <v>39000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>42500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>44100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>57200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>53500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>37800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>29900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>32700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>35200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>24600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>18400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>19100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4435,14 +4569,14 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>496400</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>24</v>
@@ -4459,8 +4593,8 @@
       <c r="U58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4483,340 +4617,355 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1555400</v>
+      </c>
+      <c r="E59" s="3">
         <v>747800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>752100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>753200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>758600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>747100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>745900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>722800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>744600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>682200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>655900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>636300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>662000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>589100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>595700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>557200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>561700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>483700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>681800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>627300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>659400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>571700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>643700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>626400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>665600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>537700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="E60" s="3">
         <v>786700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>792300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>769700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>782400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>780000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>779300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>746200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>766800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>712200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>680800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>666300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1192200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>631500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>638200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>601200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>598400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>541000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>735300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>665100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>689300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>604300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>678900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>650900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>683900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>556700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1917700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1351200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1350600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1425100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1265500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1440000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1439500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1478900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1508400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>987900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1005300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1124700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1134300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1124300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>669100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>698900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>738700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>778500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>643300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>693100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>642800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>742600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>712400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>712200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>712000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>731800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>270300</v>
+      </c>
+      <c r="E62" s="3">
         <v>257300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>248300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>253600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>246600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>246800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>250300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>256100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>255500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>253900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>258400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>257600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>265900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>276200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>155300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>132900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>131000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>112300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>75900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>63100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>68900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>69900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>83600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>93300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>90500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>89500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,91 +5219,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3781100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2395200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2391200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2448400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2294500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2466800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2469100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2481300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2530700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1954000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1944500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2048600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2592400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2032000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1462600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1433000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1468100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1431800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1454400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1421200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1401100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1416800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1474900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1456400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1486400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1378000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,91 +5681,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>866300</v>
+      </c>
+      <c r="E72" s="3">
         <v>802800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>727700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>620900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>550400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>460700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>414700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>121700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>70500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-62300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-115700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-150400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-157500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-191400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-197100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-182300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-138800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-599400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-612600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-629600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-637500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-650800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-668300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-667300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-666200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,91 +6025,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2518500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2400500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2296000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2157200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2084000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1953800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2038500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1725000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1650500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1494900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1438200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1327600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1274100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1247800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1202000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1215600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1247700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1321200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>874600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>834400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>927700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>889100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>885400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>835400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>847300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>819000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,179 +6197,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E81" s="3">
         <v>75000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>106800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>70500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>89700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>46100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>292900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>51200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>109300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>53400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-43500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>21000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>13200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>13900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>17400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-9100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,91 +6408,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E83" s="3">
         <v>21300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>22100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>22600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>21500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>21200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>21500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,91 +6922,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>210900</v>
+      </c>
+      <c r="E89" s="3">
         <v>180900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>38500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>116800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>142300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>137700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>45300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>88000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>121700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>113800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>34000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>104500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>87800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>55200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>67600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>141100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>21200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>62000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>49200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>110800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>25500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>32800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>73900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>76400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-47900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,91 +7042,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-9500</v>
-      </c>
       <c r="F91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-30300</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-15400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-14200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,91 +7298,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-839600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-237000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>41400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-717000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>46700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-473400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-101200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-13300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>7300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7268,8 +7502,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,253 +7760,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>561000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-54000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-70800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>146700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-170800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-169100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-69700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-45000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>527700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-42800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-111100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-535600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>513000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>431100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-46400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-74700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-96900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>95000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-45800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-65400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-93000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-50200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-16700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-41200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>8600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-9400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>5400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>3000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-9800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="E102" s="3">
         <v>115400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-30400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-39200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>39700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-72600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>123200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-102000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-449700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>589800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-26500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>17300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>17000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-33100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>19300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>17400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>69900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-104600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-16700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,396 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>542300</v>
+      </c>
+      <c r="E8" s="3">
         <v>542200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>465900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>507900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>462500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>505200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>457700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>480700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>435700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>461800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>429100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>391000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>351700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>359600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>356100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>335000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>295500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>290500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>334700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>312500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>314800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>307900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>306600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>306400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>291300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>280000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>286300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>288200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E9" s="3">
         <v>113500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>95800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>95500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>102000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>93300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>95100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>99700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>95100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>89400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>86800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>84600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>79200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>83000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>87400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>85400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>82700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>79900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>77400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>78100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>81600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>83600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>83000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>82800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>82300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>81800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>82100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>82900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>426400</v>
+      </c>
+      <c r="E10" s="3">
         <v>428700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>370100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>412400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>360500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>411900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>362600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>381000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>340600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>372400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>342300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>306400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>272500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>276600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>268700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>249600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>212800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>210600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>257300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>234400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>233200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>224300</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>223600</v>
       </c>
       <c r="Z10" s="3">
         <v>223600</v>
       </c>
       <c r="AA10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="AB10" s="3">
         <v>209000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>198200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>204200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>205300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,16 +1085,17 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E12" s="3">
         <v>100300</v>
-      </c>
-      <c r="E12" s="3">
-        <v>88200</v>
       </c>
       <c r="F12" s="3">
         <v>88200</v>
@@ -1090,76 +1104,79 @@
         <v>88200</v>
       </c>
       <c r="H12" s="3">
+        <v>88200</v>
+      </c>
+      <c r="I12" s="3">
         <v>81900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>80500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>78400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>78100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>72500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>70800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>69900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>61400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>60000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>65300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>64100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>60600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>61400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>60800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>62400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>61200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>62200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>64000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>60600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>59900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>57700</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>57900</v>
       </c>
       <c r="AD12" s="3">
         <v>57900</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1244,94 +1261,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>11900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>35100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>21100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>27400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>18900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>6500</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1339,34 +1362,34 @@
         <v>10700</v>
       </c>
       <c r="E15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F15" s="3">
         <v>8000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>8500</v>
       </c>
       <c r="I15" s="3">
         <v>8500</v>
       </c>
       <c r="J15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K15" s="3">
         <v>7700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>7300</v>
       </c>
       <c r="O15" s="3">
         <v>7300</v>
@@ -1375,13 +1398,13 @@
         <v>7300</v>
       </c>
       <c r="Q15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="R15" s="3">
         <v>6800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>5900</v>
       </c>
       <c r="T15" s="3">
         <v>5900</v>
@@ -1390,34 +1413,37 @@
         <v>5900</v>
       </c>
       <c r="V15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="W15" s="3">
         <v>7800</v>
-      </c>
-      <c r="W15" s="3">
-        <v>7900</v>
       </c>
       <c r="X15" s="3">
         <v>7900</v>
       </c>
       <c r="Y15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Z15" s="3">
         <v>7800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>7900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>8100</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,180 +1471,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>432400</v>
+      </c>
+      <c r="E17" s="3">
         <v>419600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>361000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>361900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>382500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>346000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>395500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>365500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>362100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>360100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>338700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>324000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>288300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>309600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>325700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>288500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>286200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>313300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>304600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>301000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>293200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>285500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>289300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>288800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>280000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>272500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>281800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E18" s="3">
         <v>122600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>104900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>146000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>80000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>159200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>62200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>115200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>73600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>101700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>67000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>63400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>50000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>30400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>46500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-22800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>30100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>22400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>17300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>17600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>11300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>7500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>4500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-33100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1649,438 +1682,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>34500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-43400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>67200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E21" s="3">
         <v>150300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>124100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>174900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>136500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>137200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>90500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>204900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>94100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>120600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>107800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>87600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>84700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>68000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>49500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>63500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>29400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>50800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>33400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>43200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>43600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>37600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>38200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>32400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>31900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>25300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E22" s="3">
         <v>41500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>31700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10300</v>
-      </c>
-      <c r="V22" s="3">
-        <v>10600</v>
       </c>
       <c r="W22" s="3">
         <v>10600</v>
       </c>
       <c r="X22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Y22" s="3">
         <v>10400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>10200</v>
       </c>
       <c r="AA22" s="3">
         <v>10200</v>
       </c>
       <c r="AB22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="AC22" s="3">
         <v>11700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>10300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E23" s="3">
         <v>81100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>86400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>137400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>103600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>55400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>169500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>58500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>86400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>77400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>55400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>33800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-33400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>20400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>11500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-6500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-43400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E24" s="3">
         <v>17600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>30500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>30300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-123400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-22900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>53900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-16400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-12500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-7000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1700</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>2600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2165,180 +2214,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E26" s="3">
         <v>63500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>75000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>106800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>70500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>89700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>46100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>292900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>51200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>109300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>35500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-14800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-43500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>21000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>13200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>17400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-9100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E27" s="3">
         <v>63500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>75000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>106800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>70500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>89700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>46100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>292900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>109300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>53400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>34700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-14800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-43500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>21000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>13200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>17400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-9100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2423,8 +2481,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2473,8 +2534,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2482,8 +2543,8 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2492,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>7100</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2509,8 +2570,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2659,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,180 +2748,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-34500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>43400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-67200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E33" s="3">
         <v>63500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>75000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>106800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>70500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>89700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>46100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>292900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>109300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>53400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>34700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-14800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-43500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>21000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>13200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>13900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>17400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-9100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,185 +3015,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E35" s="3">
         <v>63500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>75000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>106800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>70500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>89700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>46100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>292900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>109300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>53400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>34700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-14800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-43500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>21000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>13200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>13900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>17400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-9100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3233,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,94 +3266,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>281500</v>
+      </c>
+      <c r="E41" s="3">
         <v>320500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>387600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>272200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>322300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>306700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>296100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>326500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>365800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>326100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>398700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>275500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>377400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>826800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>237000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>269600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>267900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>294300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>277000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>259900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>266600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>299800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>291700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>280000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>260700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>243300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>173400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>277900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3302,144 +3392,150 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>28100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>34300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>27900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>33100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>25400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>25600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>25800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>22400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>22800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>20100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>18400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>19300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>23600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>22700</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>625500</v>
+      </c>
+      <c r="E43" s="3">
         <v>643000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>562000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>636600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>473300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>510200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>478700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>541100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>433000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>434500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>415800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>415200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>319200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>352700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>344400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>372700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>321400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>352200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>385700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>129300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>130100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>127200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>131100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>152300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>128600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>142600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>132900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>161400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3524,180 +3620,189 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E45" s="3">
         <v>202900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>177200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>159900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>152800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>150100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>234500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>205400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>119800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>141100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>121700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>114600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>124700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>127700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>128500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>112400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>130300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>118700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>111700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>218700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>169200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>199400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>176600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>215800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>200900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>262200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>184200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>184600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1103300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1166400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1126800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1068700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>948400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>967000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1009300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1073000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>918500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>901800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>936200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>833400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>847200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1341400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>739200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>782600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>752700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>790600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>633800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>588200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>649200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>619500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>666600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>609500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>671700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>513200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>642600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3732,230 +3837,239 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>31000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>32000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>28200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>29500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>21600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>31000</v>
-      </c>
-      <c r="U47" s="3">
-        <v>30100</v>
       </c>
       <c r="V47" s="3">
         <v>30100</v>
       </c>
       <c r="W47" s="3">
+        <v>30100</v>
+      </c>
+      <c r="X47" s="3">
         <v>31800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>32500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>30400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>31900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>30900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>24600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>27100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E48" s="3">
         <v>242300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>243800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>235900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>234200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>242700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>247100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>252600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>241100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>245900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>243500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>251400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>252700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>261200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>270700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>105500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>107800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>106800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>107400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>80600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>64500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>59200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>61200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>63600</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>63400</v>
       </c>
       <c r="AB48" s="3">
         <v>63400</v>
       </c>
       <c r="AC48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="AD48" s="3">
         <v>65900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>67100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4336400</v>
+      </c>
+      <c r="E49" s="3">
         <v>4348300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2762400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2736400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2781300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2541500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2553800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2570900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2592000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2603900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1861200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1863400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1852400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1854300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1872100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1408100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1428300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1421900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1436000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1382700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1397100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1421600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1428000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1440700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1445500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1441600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1453200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1480100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4154,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,94 +4243,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>533900</v>
+      </c>
+      <c r="E52" s="3">
         <v>542600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>662800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>646400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>641600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>627300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>610400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>611100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>454600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>429600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>408000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>403500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>391900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>386900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>369700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>338800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>338400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>365500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>379600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>201900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>174000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>166300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>166900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>157600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>142500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>132400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>137600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4421,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6207600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6299600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4795800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4687300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4605500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4378500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4420600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4507600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4206200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4181200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3448900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3382700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3376200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3866500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3279800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2664600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2648600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2715800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2753000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2329000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2255600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2328800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2305900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2360400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2291800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2333700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2196900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2345700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4545,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,94 +4578,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E57" s="3">
         <v>37700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>39000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>42400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>44100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>36700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>57200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>53500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>37800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>29900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>32700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>35200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>24600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>18400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>19100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4572,14 +4706,14 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>496400</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>24</v>
@@ -4596,8 +4730,8 @@
       <c r="V58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4620,352 +4754,367 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1593200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1555400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>747800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>752100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>753200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>758600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>747100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>745900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>722800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>744600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>682200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>655900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>636300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>662000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>589100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>595700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>557200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>561700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>483700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>681800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>627300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>659400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>571700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>643700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>626400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>665600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>537700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>636500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1611700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1593000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>786700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>792300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>769700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>782400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>780000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>779300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>746200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>766800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>712200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>680800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>666300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1192200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>631500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>638200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>601200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>598400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>541000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>735300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>665100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>689300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>604300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>678900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>650900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>683900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>556700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>654500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1738200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1917700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1351200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1350600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1425100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1265500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1440000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1439500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1478900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1508400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>987900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1005300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1124700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1134300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1124300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>669100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>698900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>738700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>778500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>643300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>693100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>642800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>742600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>712400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>712200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>712000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>731800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>751600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>259100</v>
+      </c>
+      <c r="E62" s="3">
         <v>270300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>257300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>248300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>253600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>246600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>246800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>250300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>256100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>255500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>253900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>258400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>257600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>265900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>276200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>155300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>132900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>131000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>112300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>75900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>63100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>68900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>69900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>83600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>93300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>90500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>89500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5199,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5136,8 +5288,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5377,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3609000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3781100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2395200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2391200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2448400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2294500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2466800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2469100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2481300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2530700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1954000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1944500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2048600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2592400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2032000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1462600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1433000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1468100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1431800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1454400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1421200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1401100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1416800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1474900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1456400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1486400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1378000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1503100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5501,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5588,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5677,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5598,8 +5766,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,94 +5855,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>927700</v>
+      </c>
+      <c r="E72" s="3">
         <v>866300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>802800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>727700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>620900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>550400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>460700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>414700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>121700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>70500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-115700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-150400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-157500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-191400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-197100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-182300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-138800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-599400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-612600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-629600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-637500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-650800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-668300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-667300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-666200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-657100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6033,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6122,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6211,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2598700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2518500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2400500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2296000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2157200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2084000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1953800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2038500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1725000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1650500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1494900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1438200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1327600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1274100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1247800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1202000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1215600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1247700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1321200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>874600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>834400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>927700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>889100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>885400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>835400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>847300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>819000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>842700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,185 +6389,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E81" s="3">
         <v>63500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>75000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>106800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>70500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>89700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>46100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>292900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>109300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>53400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>34700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-14800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-43500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>21000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>13200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>13900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>17400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-9100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,94 +6607,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E83" s="3">
         <v>27700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>20100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>22600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>22600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>21500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>21200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>21500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6783,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6872,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6961,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7050,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7139,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E89" s="3">
         <v>210900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>180900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>38500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>116800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>142300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>137700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>45300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>88000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>121700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>113800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>34000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>104500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>55200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>67600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>141100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>21200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>62000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>49200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>110800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>25500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>32800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>73900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>76400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-47900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,94 +7263,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-15400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-14200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7439,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7528,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-839600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-237000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>41400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-717000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>46700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-20300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-473400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-101200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-11500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>7300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,8 +7652,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7505,8 +7739,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7828,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7917,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,262 +8006,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-199500</v>
+      </c>
+      <c r="E100" s="3">
         <v>561000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-54000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-70800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>146700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-170800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-169100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-69700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-45000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>527700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-42800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-111100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-535600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>513000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>431100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-46400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-74700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-96900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>95000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-45800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-65400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-93000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-9400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-50200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-16700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-41200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-9400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>5400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>3000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-9800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-67100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>115400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-30400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-72600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>123200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-102000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-449700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>589800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-32800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-26500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>17300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>17000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-7100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-33100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>7700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>12100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>19300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>17400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>69900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-104600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-16700</v>
       </c>
     </row>
